--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SteamMultiplayerProject\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE7CDE-5BF4-4245-958C-CD1D0D47049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35248B-68B1-47AF-AF52-A8E6148B6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="261">
   <si>
     <t>weapon_name</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>POISON_DAMAGE</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,42 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5218,46 +5256,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}" name="表2" displayName="表2" ref="A1:AK77" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
-  <autoFilter ref="A1:AK77" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}"/>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{3799E386-948D-4F00-B827-99F2EC0CADAF}" name="weapon_id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{E7EC2432-526D-42DA-9967-ADCC67D0D963}" name="weapon_name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{0F8DAFFC-7E9B-489B-9946-3E70FEDCF9B9}" name="icon" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{62CF3CC9-3BDA-41DF-BBBF-9A9DC5CF5D38}" name="detail" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{4CB79038-58FA-4A6D-8E76-3A367AED3817}" name="star_rating" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{8927CA07-5E25-43D5-AC54-2432F368AAD4}" name="price" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{78D5B758-D9B4-4DDD-B04E-B2ACA8854564}" name="max_quantity" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{47B2F857-5351-4448-A812-FE2D94F2F3FA}" name="types" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{AD446C8D-C515-4BD5-ACA7-5FE10827C8CE}" name="elements" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{4D5B2612-372E-45E3-A175-DB0F068AD228}" name="MAX_HP" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{2898CDF2-8D76-4B48-A443-AEA62CFD250C}" name="HP_REGEN" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{B8ADB5DE-118A-4B2D-9589-A1038F566A97}" name="LIFE_STEAL" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{265AF2FC-D072-4BB9-9C90-6C94C39F35E7}" name="PHY_ATK" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{66FC9F8E-699C-4806-8D11-1A7A04343EF8}" name="MAG_ATK" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{CDBAE5C6-06A2-402D-9B1E-A2462F122EA9}" name="CRIT_RATE" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{6F53DAB9-40C3-4095-A2F7-DDBBC38A35FA}" name="CRIT_DMG" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{305C7683-DDA4-4836-9D85-811138240927}" name="KNOCKBACK" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{56D38059-B42E-46BD-8761-A58E28F9561F}" name="SEARCH_RAD" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{199FA71C-79DC-4A88-B3A3-768D06416074}" name="SPAWN_SIZE" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{37FF1CF8-9C13-4CA6-8CC5-91545422452D}" name="WEAPON_SIZE" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{99DF8C3B-8FE2-4B2E-9E79-75CD213849D7}" name="PROJ_COUNT" dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{53495D90-0508-4351-8805-24EB632E137B}" name="FLY_SPD" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{4DD61C33-2204-42E1-A602-63E2FEFBD054}" name="ROT_SPD" dataDxfId="19"/>
-    <tableColumn id="26" xr3:uid="{A2B9BE8D-663F-49BA-8874-91A31BBAF2FE}" name="PEN_RATE" dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{64A72190-2BAE-4CF1-ACDE-B989FBC70FA5}" name="ATK_CD" dataDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{BE83D09A-ED7F-4DE4-AEB7-0BE072111907}" name="EFF_DUR" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{65D5BFEA-2563-4840-A311-C70B41F62770}" name="DECEL_DUR" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{6C2C10CB-92E3-43AB-9616-CACADD75802A}" name="SLOW_RATE" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{7C8E3DC3-0925-43C8-8A32-F9D3DE931C4D}" name="FREEZE_RATE" dataDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{CBAFAC74-2EAB-4BA4-B365-094617C5E55B}" name="LCH_DMG" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{A17D1816-87E4-4D41-B6F6-F6902B968918}" name="LCH_COUNT" dataDxfId="11"/>
-    <tableColumn id="35" xr3:uid="{751E6DA3-3743-42CC-89E3-5EF0E8BE4E84}" name="POISON_LAY" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{8E4D91E4-74F0-42EB-A74B-9CE85A16CF7D}" name="MAX_POISON" dataDxfId="9"/>
-    <tableColumn id="37" xr3:uid="{E035CCBD-1773-4D08-95C9-44920EC8EACB}" name="NAT_GROW" dataDxfId="8"/>
-    <tableColumn id="38" xr3:uid="{6450A074-7E7E-4569-B875-F6EDFD2776BF}" name="DIV_STR" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{C0C7B4E8-7D45-48BF-885E-A9BB8F8CADE1}" name="PICK_AXE" dataDxfId="6"/>
-    <tableColumn id="40" xr3:uid="{8C926E07-1639-4F8D-8FCB-ED5C398A0900}" name="SCROLL_CD_REDUC" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}" name="表2" displayName="表2" ref="A1:AL77" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A1:AL77" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{3799E386-948D-4F00-B827-99F2EC0CADAF}" name="weapon_id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{E7EC2432-526D-42DA-9967-ADCC67D0D963}" name="weapon_name" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0F8DAFFC-7E9B-489B-9946-3E70FEDCF9B9}" name="icon" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{62CF3CC9-3BDA-41DF-BBBF-9A9DC5CF5D38}" name="detail" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{4CB79038-58FA-4A6D-8E76-3A367AED3817}" name="star_rating" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{8927CA07-5E25-43D5-AC54-2432F368AAD4}" name="price" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{78D5B758-D9B4-4DDD-B04E-B2ACA8854564}" name="max_quantity" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{47B2F857-5351-4448-A812-FE2D94F2F3FA}" name="types" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{AD446C8D-C515-4BD5-ACA7-5FE10827C8CE}" name="elements" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{4D5B2612-372E-45E3-A175-DB0F068AD228}" name="MAX_HP" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{2898CDF2-8D76-4B48-A443-AEA62CFD250C}" name="HP_REGEN" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{B8ADB5DE-118A-4B2D-9589-A1038F566A97}" name="LIFE_STEAL" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{265AF2FC-D072-4BB9-9C90-6C94C39F35E7}" name="PHY_ATK" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{66FC9F8E-699C-4806-8D11-1A7A04343EF8}" name="MAG_ATK" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{CDBAE5C6-06A2-402D-9B1E-A2462F122EA9}" name="CRIT_RATE" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{6F53DAB9-40C3-4095-A2F7-DDBBC38A35FA}" name="CRIT_DMG" dataDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{305C7683-DDA4-4836-9D85-811138240927}" name="KNOCKBACK" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{56D38059-B42E-46BD-8761-A58E28F9561F}" name="SEARCH_RAD" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{199FA71C-79DC-4A88-B3A3-768D06416074}" name="SPAWN_SIZE" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{37FF1CF8-9C13-4CA6-8CC5-91545422452D}" name="WEAPON_SIZE" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{99DF8C3B-8FE2-4B2E-9E79-75CD213849D7}" name="PROJ_COUNT" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{53495D90-0508-4351-8805-24EB632E137B}" name="FLY_SPD" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{4DD61C33-2204-42E1-A602-63E2FEFBD054}" name="ROT_SPD" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{A2B9BE8D-663F-49BA-8874-91A31BBAF2FE}" name="PEN_RATE" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{64A72190-2BAE-4CF1-ACDE-B989FBC70FA5}" name="ATK_CD" dataDxfId="18"/>
+    <tableColumn id="28" xr3:uid="{BE83D09A-ED7F-4DE4-AEB7-0BE072111907}" name="EFF_DUR" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{65D5BFEA-2563-4840-A311-C70B41F62770}" name="DECEL_DUR" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{6C2C10CB-92E3-43AB-9616-CACADD75802A}" name="SLOW_RATE" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{7C8E3DC3-0925-43C8-8A32-F9D3DE931C4D}" name="FREEZE_RATE" dataDxfId="14"/>
+    <tableColumn id="33" xr3:uid="{CBAFAC74-2EAB-4BA4-B365-094617C5E55B}" name="LCH_DMG" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{A17D1816-87E4-4D41-B6F6-F6902B968918}" name="LCH_COUNT" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{751E6DA3-3743-42CC-89E3-5EF0E8BE4E84}" name="POISON_LAY" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{8E4D91E4-74F0-42EB-A74B-9CE85A16CF7D}" name="MAX_POISON" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{24B11305-D783-4C8F-90CF-76AE324CFDB2}" name="POISON_DAMAGE" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{E035CCBD-1773-4D08-95C9-44920EC8EACB}" name="NAT_GROW" dataDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{6450A074-7E7E-4569-B875-F6EDFD2776BF}" name="DIV_STR" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{C0C7B4E8-7D45-48BF-885E-A9BB8F8CADE1}" name="PICK_AXE" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{8C926E07-1639-4F8D-8FCB-ED5C398A0900}" name="SCROLL_CD_REDUC" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5541,11 +5580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5558,12 +5597,12 @@
     <col min="6" max="6" width="11.125" style="36" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="36" customWidth="1"/>
     <col min="8" max="9" width="20.625" style="36" customWidth="1"/>
-    <col min="10" max="37" width="16.625" style="39" customWidth="1"/>
-    <col min="38" max="39" width="100.625" style="36" customWidth="1"/>
-    <col min="40" max="16384" width="16.625" style="39"/>
+    <col min="10" max="38" width="16.625" style="39" customWidth="1"/>
+    <col min="39" max="40" width="100.625" style="36" customWidth="1"/>
+    <col min="41" max="16384" width="16.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5664,25 +5703,28 @@
         <v>154</v>
       </c>
       <c r="AH1" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" s="49" t="s">
+      <c r="AJ1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AJ1" s="50" t="s">
+      <c r="AK1" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AL1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="AL1" s="62" t="s">
+      <c r="AM1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AM1" s="62" t="s">
+      <c r="AN1" s="62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -5791,17 +5833,20 @@
       <c r="AJ2" s="6">
         <v>0</v>
       </c>
-      <c r="AK2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AK2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5910,17 +5955,20 @@
       <c r="AJ3" s="11">
         <v>0</v>
       </c>
-      <c r="AK3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AK3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6029,17 +6077,20 @@
       <c r="AJ4" s="6">
         <v>0</v>
       </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AK4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6148,17 +6199,20 @@
       <c r="AJ5" s="11">
         <v>0</v>
       </c>
-      <c r="AK5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AK5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AN5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -6267,17 +6321,20 @@
       <c r="AJ6" s="6">
         <v>0</v>
       </c>
-      <c r="AK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6386,17 +6443,20 @@
       <c r="AJ7" s="11">
         <v>0</v>
       </c>
-      <c r="AK7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AK7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AN7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -6505,17 +6565,20 @@
       <c r="AJ8" s="6">
         <v>0</v>
       </c>
-      <c r="AK8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AK8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AN8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -6624,17 +6687,20 @@
       <c r="AJ9" s="16">
         <v>0</v>
       </c>
-      <c r="AK9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="16" t="s">
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM9" s="16" t="s">
+      <c r="AN9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6743,17 +6809,20 @@
       <c r="AJ10" s="21">
         <v>0</v>
       </c>
-      <c r="AK10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="21" t="s">
+      <c r="AK10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AM10" s="21" t="s">
+      <c r="AN10" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -6862,17 +6931,20 @@
       <c r="AJ11" s="16">
         <v>0</v>
       </c>
-      <c r="AK11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="16" t="s">
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AM11" s="16" t="s">
+      <c r="AN11" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -6981,17 +7053,20 @@
       <c r="AJ12" s="21">
         <v>0</v>
       </c>
-      <c r="AK12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="21" t="s">
+      <c r="AK12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AM12" s="21" t="s">
+      <c r="AN12" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -7100,17 +7175,20 @@
       <c r="AJ13" s="16">
         <v>0</v>
       </c>
-      <c r="AK13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="16" t="s">
+      <c r="AK13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AM13" s="16" t="s">
+      <c r="AN13" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -7219,17 +7297,20 @@
       <c r="AJ14" s="21">
         <v>0</v>
       </c>
-      <c r="AK14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="21" t="s">
+      <c r="AK14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AM14" s="21" t="s">
+      <c r="AN14" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -7338,17 +7419,20 @@
       <c r="AJ15" s="16">
         <v>0</v>
       </c>
-      <c r="AK15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="16" t="s">
+      <c r="AK15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AM15" s="16" t="s">
+      <c r="AN15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -7457,17 +7541,20 @@
       <c r="AJ16" s="26">
         <v>0</v>
       </c>
-      <c r="AK16" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="26" t="s">
+      <c r="AK16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AM16" s="26" t="s">
+      <c r="AN16" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>15</v>
       </c>
@@ -7576,17 +7663,20 @@
       <c r="AJ17" s="31">
         <v>0</v>
       </c>
-      <c r="AK17" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="31" t="s">
+      <c r="AK17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="AM17" s="31" t="s">
+      <c r="AN17" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>16</v>
       </c>
@@ -7695,17 +7785,20 @@
       <c r="AJ18" s="26">
         <v>0</v>
       </c>
-      <c r="AK18" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="26" t="s">
+      <c r="AK18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="AM18" s="26" t="s">
+      <c r="AN18" s="26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>17</v>
       </c>
@@ -7814,17 +7907,20 @@
       <c r="AJ19" s="31">
         <v>0</v>
       </c>
-      <c r="AK19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="31" t="s">
+      <c r="AK19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="AM19" s="31" t="s">
+      <c r="AN19" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>18</v>
       </c>
@@ -7933,17 +8029,20 @@
       <c r="AJ20" s="26">
         <v>0</v>
       </c>
-      <c r="AK20" s="28">
+      <c r="AK20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="28">
         <v>0.5</v>
       </c>
-      <c r="AL20" s="26" t="s">
+      <c r="AM20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="AM20" s="26" t="s">
+      <c r="AN20" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>19</v>
       </c>
@@ -8052,17 +8151,20 @@
       <c r="AJ21" s="31">
         <v>0</v>
       </c>
-      <c r="AK21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="31" t="s">
+      <c r="AK21" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="AM21" s="31" t="s">
+      <c r="AN21" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>20</v>
       </c>
@@ -8171,17 +8273,20 @@
       <c r="AJ22" s="26">
         <v>0</v>
       </c>
-      <c r="AK22" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="26" t="s">
+      <c r="AK22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AM22" s="26" t="s">
+      <c r="AN22" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57">
         <v>21</v>
       </c>
@@ -8290,17 +8395,20 @@
       <c r="AJ23" s="58">
         <v>0</v>
       </c>
-      <c r="AK23" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="58" t="s">
+      <c r="AK23" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="AM23" s="58" t="s">
+      <c r="AN23" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52">
         <v>22</v>
       </c>
@@ -8409,17 +8517,20 @@
       <c r="AJ24" s="53">
         <v>0</v>
       </c>
-      <c r="AK24" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="53" t="s">
+      <c r="AK24" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="55">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="AM24" s="53" t="s">
+      <c r="AN24" s="53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57">
         <v>23</v>
       </c>
@@ -8528,17 +8639,20 @@
       <c r="AJ25" s="58">
         <v>0</v>
       </c>
-      <c r="AK25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="58" t="s">
+      <c r="AK25" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="AM25" s="58" t="s">
+      <c r="AN25" s="58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52">
         <v>24</v>
       </c>
@@ -8647,17 +8761,20 @@
       <c r="AJ26" s="53">
         <v>0</v>
       </c>
-      <c r="AK26" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="53" t="s">
+      <c r="AK26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="55">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AM26" s="53" t="s">
+      <c r="AN26" s="53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>25</v>
       </c>
@@ -8766,17 +8883,20 @@
       <c r="AJ27" s="58">
         <v>0</v>
       </c>
-      <c r="AK27" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="58" t="s">
+      <c r="AK27" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AM27" s="58" t="s">
+      <c r="AN27" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52">
         <v>26</v>
       </c>
@@ -8885,17 +9005,20 @@
       <c r="AJ28" s="53">
         <v>0</v>
       </c>
-      <c r="AK28" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="53" t="s">
+      <c r="AK28" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="55">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="AM28" s="53" t="s">
+      <c r="AN28" s="53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57">
         <v>27</v>
       </c>
@@ -9004,17 +9127,20 @@
       <c r="AJ29" s="58">
         <v>0</v>
       </c>
-      <c r="AK29" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="58" t="s">
+      <c r="AK29" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="AM29" s="58" t="s">
+      <c r="AN29" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63">
         <v>28</v>
       </c>
@@ -9052,22 +9178,22 @@
         <v>0</v>
       </c>
       <c r="M30" s="64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="64">
         <v>0</v>
       </c>
       <c r="P30" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R30" s="64">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S30" s="64">
         <v>0</v>
@@ -9076,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="U30" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="64">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W30" s="64">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X30" s="64">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y30" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="64">
         <v>0</v>
@@ -9109,13 +9235,13 @@
         <v>0</v>
       </c>
       <c r="AF30" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="64">
         <v>0</v>
@@ -9123,17 +9249,20 @@
       <c r="AJ30" s="64">
         <v>0</v>
       </c>
-      <c r="AK30" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="64" t="s">
+      <c r="AK30" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="AM30" s="64" t="s">
+      <c r="AN30" s="64" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="69">
         <v>29</v>
       </c>
@@ -9201,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="69">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X31" s="69">
         <v>0</v>
@@ -9228,13 +9357,13 @@
         <v>0</v>
       </c>
       <c r="AF31" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="69">
         <v>0</v>
@@ -9245,14 +9374,17 @@
       <c r="AK31" s="69">
         <v>0</v>
       </c>
-      <c r="AL31" s="69" t="s">
+      <c r="AL31" s="69">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="AM31" s="69" t="s">
+      <c r="AN31" s="69" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63">
         <v>30</v>
       </c>
@@ -9320,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="64">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X32" s="64">
         <v>0</v>
@@ -9347,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="AF32" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH32" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="64">
         <v>0</v>
@@ -9361,17 +9493,20 @@
       <c r="AJ32" s="64">
         <v>0</v>
       </c>
-      <c r="AK32" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="64" t="s">
+      <c r="AK32" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="AM32" s="64" t="s">
+      <c r="AN32" s="64" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="68">
         <v>31</v>
       </c>
@@ -9439,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="68">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X33" s="68">
         <v>0</v>
@@ -9466,13 +9601,13 @@
         <v>0</v>
       </c>
       <c r="AF33" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH33" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="68">
         <v>0</v>
@@ -9483,14 +9618,17 @@
       <c r="AK33" s="68">
         <v>0</v>
       </c>
-      <c r="AL33" s="68" t="s">
+      <c r="AL33" s="68">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="AM33" s="68" t="s">
+      <c r="AN33" s="68" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63">
         <v>32</v>
       </c>
@@ -9558,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="64">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X34" s="64">
         <v>0</v>
@@ -9585,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="AF34" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="64">
         <v>0</v>
@@ -9599,17 +9737,20 @@
       <c r="AJ34" s="64">
         <v>0</v>
       </c>
-      <c r="AK34" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="64" t="s">
+      <c r="AK34" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="AM34" s="64" t="s">
+      <c r="AN34" s="64" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68">
         <v>33</v>
       </c>
@@ -9677,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="68">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="X35" s="68">
         <v>0</v>
@@ -9704,13 +9845,13 @@
         <v>0</v>
       </c>
       <c r="AF35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH35" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="68">
         <v>0</v>
@@ -9721,14 +9862,17 @@
       <c r="AK35" s="68">
         <v>0</v>
       </c>
-      <c r="AL35" s="68" t="s">
+      <c r="AL35" s="68">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="AM35" s="68" t="s">
+      <c r="AN35" s="68" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="70">
         <v>34</v>
       </c>
@@ -9840,14 +9984,17 @@
       <c r="AK36" s="70">
         <v>0</v>
       </c>
-      <c r="AL36" s="70" t="s">
+      <c r="AL36" s="70">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="AM36" s="70" t="s">
+      <c r="AN36" s="70" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72">
         <v>35</v>
       </c>
@@ -9959,14 +10106,17 @@
       <c r="AK37" s="72">
         <v>0</v>
       </c>
-      <c r="AL37" s="72" t="s">
+      <c r="AL37" s="72">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="AM37" s="72" t="s">
+      <c r="AN37" s="72" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71">
         <v>36</v>
       </c>
@@ -10078,14 +10228,17 @@
       <c r="AK38" s="71">
         <v>0</v>
       </c>
-      <c r="AL38" s="71" t="s">
+      <c r="AL38" s="71">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="AM38" s="71" t="s">
+      <c r="AN38" s="71" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72">
         <v>37</v>
       </c>
@@ -10197,14 +10350,17 @@
       <c r="AK39" s="72">
         <v>0</v>
       </c>
-      <c r="AL39" s="72" t="s">
+      <c r="AL39" s="72">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="AM39" s="72" t="s">
+      <c r="AN39" s="72" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71">
         <v>38</v>
       </c>
@@ -10316,14 +10472,17 @@
       <c r="AK40" s="71">
         <v>0</v>
       </c>
-      <c r="AL40" s="71" t="s">
+      <c r="AL40" s="71">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="AM40" s="71" t="s">
+      <c r="AN40" s="71" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="75">
         <v>39</v>
       </c>
@@ -10435,14 +10594,17 @@
       <c r="AK41" s="75">
         <v>0</v>
       </c>
-      <c r="AL41" s="75" t="s">
+      <c r="AL41" s="75">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="AM41" s="75" t="s">
+      <c r="AN41" s="75" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="76">
         <v>40</v>
       </c>
@@ -10554,14 +10716,17 @@
       <c r="AK42" s="76">
         <v>0</v>
       </c>
-      <c r="AL42" s="76" t="s">
+      <c r="AL42" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="AM42" s="76" t="s">
+      <c r="AN42" s="76" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="75">
         <v>41</v>
       </c>
@@ -10673,14 +10838,17 @@
       <c r="AK43" s="75">
         <v>0</v>
       </c>
-      <c r="AL43" s="75" t="s">
+      <c r="AL43" s="75">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="AM43" s="75" t="s">
+      <c r="AN43" s="75" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="76">
         <v>42</v>
       </c>
@@ -10792,14 +10960,17 @@
       <c r="AK44" s="76">
         <v>0</v>
       </c>
-      <c r="AL44" s="76" t="s">
+      <c r="AL44" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="AM44" s="76" t="s">
+      <c r="AN44" s="76" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="75">
         <v>43</v>
       </c>
@@ -10911,14 +11082,17 @@
       <c r="AK45" s="75">
         <v>0</v>
       </c>
-      <c r="AL45" s="75" t="s">
+      <c r="AL45" s="75">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="AM45" s="75" t="s">
+      <c r="AN45" s="75" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="76">
         <v>44</v>
       </c>
@@ -11030,14 +11204,17 @@
       <c r="AK46" s="76">
         <v>0</v>
       </c>
-      <c r="AL46" s="76" t="s">
+      <c r="AL46" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="AM46" s="76" t="s">
+      <c r="AN46" s="76" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="73">
         <v>45</v>
       </c>
@@ -11149,14 +11326,17 @@
       <c r="AK47" s="73">
         <v>0</v>
       </c>
-      <c r="AL47" s="73" t="s">
+      <c r="AL47" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="AM47" s="73" t="s">
+      <c r="AN47" s="73" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="74">
         <v>46</v>
       </c>
@@ -11268,14 +11448,17 @@
       <c r="AK48" s="74">
         <v>0</v>
       </c>
-      <c r="AL48" s="74" t="s">
+      <c r="AL48" s="74">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="AM48" s="74" t="s">
+      <c r="AN48" s="74" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73">
         <v>47</v>
       </c>
@@ -11387,14 +11570,17 @@
       <c r="AK49" s="73">
         <v>0</v>
       </c>
-      <c r="AL49" s="73" t="s">
+      <c r="AL49" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="AM49" s="73" t="s">
+      <c r="AN49" s="73" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="74">
         <v>48</v>
       </c>
@@ -11506,14 +11692,17 @@
       <c r="AK50" s="74">
         <v>0</v>
       </c>
-      <c r="AL50" s="74" t="s">
+      <c r="AL50" s="74">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="AM50" s="74" t="s">
+      <c r="AN50" s="74" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="73">
         <v>49</v>
       </c>
@@ -11625,14 +11814,17 @@
       <c r="AK51" s="73">
         <v>0</v>
       </c>
-      <c r="AL51" s="73" t="s">
+      <c r="AL51" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="AM51" s="73" t="s">
+      <c r="AN51" s="73" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="35"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -11661,9 +11853,10 @@
       <c r="AH52" s="36"/>
       <c r="AI52" s="36"/>
       <c r="AJ52" s="36"/>
-      <c r="AK52" s="38"/>
+      <c r="AK52" s="36"/>
+      <c r="AL52" s="38"/>
     </row>
-    <row r="53" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -11692,9 +11885,10 @@
       <c r="AH53" s="36"/>
       <c r="AI53" s="36"/>
       <c r="AJ53" s="36"/>
-      <c r="AK53" s="38"/>
+      <c r="AK53" s="36"/>
+      <c r="AL53" s="38"/>
     </row>
-    <row r="54" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -11723,9 +11917,10 @@
       <c r="AH54" s="36"/>
       <c r="AI54" s="36"/>
       <c r="AJ54" s="36"/>
-      <c r="AK54" s="38"/>
+      <c r="AK54" s="36"/>
+      <c r="AL54" s="38"/>
     </row>
-    <row r="55" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -11754,9 +11949,10 @@
       <c r="AH55" s="36"/>
       <c r="AI55" s="36"/>
       <c r="AJ55" s="36"/>
-      <c r="AK55" s="38"/>
+      <c r="AK55" s="36"/>
+      <c r="AL55" s="38"/>
     </row>
-    <row r="56" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -11785,9 +11981,10 @@
       <c r="AH56" s="36"/>
       <c r="AI56" s="36"/>
       <c r="AJ56" s="36"/>
-      <c r="AK56" s="38"/>
+      <c r="AK56" s="36"/>
+      <c r="AL56" s="38"/>
     </row>
-    <row r="57" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -11816,9 +12013,10 @@
       <c r="AH57" s="36"/>
       <c r="AI57" s="36"/>
       <c r="AJ57" s="36"/>
-      <c r="AK57" s="38"/>
+      <c r="AK57" s="36"/>
+      <c r="AL57" s="38"/>
     </row>
-    <row r="58" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -11847,9 +12045,10 @@
       <c r="AH58" s="36"/>
       <c r="AI58" s="36"/>
       <c r="AJ58" s="36"/>
-      <c r="AK58" s="38"/>
+      <c r="AK58" s="36"/>
+      <c r="AL58" s="38"/>
     </row>
-    <row r="59" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -11878,9 +12077,10 @@
       <c r="AH59" s="36"/>
       <c r="AI59" s="36"/>
       <c r="AJ59" s="36"/>
-      <c r="AK59" s="38"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="38"/>
     </row>
-    <row r="60" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -11909,9 +12109,10 @@
       <c r="AH60" s="36"/>
       <c r="AI60" s="36"/>
       <c r="AJ60" s="36"/>
-      <c r="AK60" s="38"/>
+      <c r="AK60" s="36"/>
+      <c r="AL60" s="38"/>
     </row>
-    <row r="61" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -11940,9 +12141,10 @@
       <c r="AH61" s="36"/>
       <c r="AI61" s="36"/>
       <c r="AJ61" s="36"/>
-      <c r="AK61" s="38"/>
+      <c r="AK61" s="36"/>
+      <c r="AL61" s="38"/>
     </row>
-    <row r="62" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -11971,9 +12173,10 @@
       <c r="AH62" s="36"/>
       <c r="AI62" s="36"/>
       <c r="AJ62" s="36"/>
-      <c r="AK62" s="38"/>
+      <c r="AK62" s="36"/>
+      <c r="AL62" s="38"/>
     </row>
-    <row r="63" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -12002,9 +12205,10 @@
       <c r="AH63" s="36"/>
       <c r="AI63" s="36"/>
       <c r="AJ63" s="36"/>
-      <c r="AK63" s="38"/>
+      <c r="AK63" s="36"/>
+      <c r="AL63" s="38"/>
     </row>
-    <row r="64" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -12033,9 +12237,10 @@
       <c r="AH64" s="36"/>
       <c r="AI64" s="36"/>
       <c r="AJ64" s="36"/>
-      <c r="AK64" s="38"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="38"/>
     </row>
-    <row r="65" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
@@ -12064,9 +12269,10 @@
       <c r="AH65" s="36"/>
       <c r="AI65" s="36"/>
       <c r="AJ65" s="36"/>
-      <c r="AK65" s="38"/>
+      <c r="AK65" s="36"/>
+      <c r="AL65" s="38"/>
     </row>
-    <row r="66" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
@@ -12095,9 +12301,10 @@
       <c r="AH66" s="36"/>
       <c r="AI66" s="36"/>
       <c r="AJ66" s="36"/>
-      <c r="AK66" s="38"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="38"/>
     </row>
-    <row r="67" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
@@ -12126,9 +12333,10 @@
       <c r="AH67" s="36"/>
       <c r="AI67" s="36"/>
       <c r="AJ67" s="36"/>
-      <c r="AK67" s="38"/>
+      <c r="AK67" s="36"/>
+      <c r="AL67" s="38"/>
     </row>
-    <row r="68" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
@@ -12157,9 +12365,10 @@
       <c r="AH68" s="36"/>
       <c r="AI68" s="36"/>
       <c r="AJ68" s="36"/>
-      <c r="AK68" s="38"/>
+      <c r="AK68" s="36"/>
+      <c r="AL68" s="38"/>
     </row>
-    <row r="69" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
@@ -12188,9 +12397,10 @@
       <c r="AH69" s="36"/>
       <c r="AI69" s="36"/>
       <c r="AJ69" s="36"/>
-      <c r="AK69" s="38"/>
+      <c r="AK69" s="36"/>
+      <c r="AL69" s="38"/>
     </row>
-    <row r="70" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -12219,9 +12429,10 @@
       <c r="AH70" s="36"/>
       <c r="AI70" s="36"/>
       <c r="AJ70" s="36"/>
-      <c r="AK70" s="38"/>
+      <c r="AK70" s="36"/>
+      <c r="AL70" s="38"/>
     </row>
-    <row r="71" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -12250,9 +12461,10 @@
       <c r="AH71" s="36"/>
       <c r="AI71" s="36"/>
       <c r="AJ71" s="36"/>
-      <c r="AK71" s="38"/>
+      <c r="AK71" s="36"/>
+      <c r="AL71" s="38"/>
     </row>
-    <row r="72" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -12281,9 +12493,10 @@
       <c r="AH72" s="36"/>
       <c r="AI72" s="36"/>
       <c r="AJ72" s="36"/>
-      <c r="AK72" s="38"/>
+      <c r="AK72" s="36"/>
+      <c r="AL72" s="38"/>
     </row>
-    <row r="73" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -12312,9 +12525,10 @@
       <c r="AH73" s="36"/>
       <c r="AI73" s="36"/>
       <c r="AJ73" s="36"/>
-      <c r="AK73" s="38"/>
+      <c r="AK73" s="36"/>
+      <c r="AL73" s="38"/>
     </row>
-    <row r="74" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -12343,9 +12557,10 @@
       <c r="AH74" s="36"/>
       <c r="AI74" s="36"/>
       <c r="AJ74" s="36"/>
-      <c r="AK74" s="38"/>
+      <c r="AK74" s="36"/>
+      <c r="AL74" s="38"/>
     </row>
-    <row r="75" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -12374,9 +12589,10 @@
       <c r="AH75" s="36"/>
       <c r="AI75" s="36"/>
       <c r="AJ75" s="36"/>
-      <c r="AK75" s="38"/>
+      <c r="AK75" s="36"/>
+      <c r="AL75" s="38"/>
     </row>
-    <row r="76" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -12405,9 +12621,10 @@
       <c r="AH76" s="36"/>
       <c r="AI76" s="36"/>
       <c r="AJ76" s="36"/>
-      <c r="AK76" s="38"/>
+      <c r="AK76" s="36"/>
+      <c r="AL76" s="38"/>
     </row>
-    <row r="77" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -12444,33 +12661,34 @@
       <c r="AH77" s="41"/>
       <c r="AI77" s="41"/>
       <c r="AJ77" s="41"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="41"/>
+      <c r="AK77" s="41"/>
+      <c r="AL77" s="43"/>
       <c r="AM77" s="41"/>
+      <c r="AN77" s="41"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L50">
     <sortCondition ref="A50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:AK24 J25:S25 U25:AK25 J26:AK29">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="J2:AL24 J25:S25 U25:AL25 J26:AL29">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AK51">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="J2:AL51">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\7.19\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35248B-68B1-47AF-AF52-A8E6148B6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D161D-10C5-4A2C-BBF5-9A3A54A5087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,740 +76,745 @@
     <t>靠近的敌人会被喷火攻击</t>
   </si>
   <si>
+    <t>weapon_id</t>
+  </si>
+  <si>
+    <t>Spark Shooter</t>
+  </si>
+  <si>
+    <t>子弹为烟花，消失时爆炸并点燃爆炸区域</t>
+  </si>
+  <si>
+    <t>BOW</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_0/weapon_0.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_0/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_1/weapon_1.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_1/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_2/weapon_2.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_2/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_3/weapon_3.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_3/icon.png</t>
+  </si>
+  <si>
+    <t>Surtr's Fury</t>
+  </si>
+  <si>
+    <t>攻击时召唤陨石，陨石随机攻击一个位置</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_4/weapon_4.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_4/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_5/weapon_5.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_5/icon.png</t>
+  </si>
+  <si>
+    <t>Doom Bringer</t>
+  </si>
+  <si>
+    <t>射出自动追踪敌人的炸弹</t>
+  </si>
+  <si>
+    <t>FIREARM</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_6/weapon_6.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_6/icon.png</t>
+  </si>
+  <si>
+    <t>Frost Shield</t>
+  </si>
+  <si>
+    <t>Frostbite Touch</t>
+  </si>
+  <si>
+    <t>Snowfield Blade</t>
+  </si>
+  <si>
+    <t>Frost Balde Boomerang</t>
+  </si>
+  <si>
+    <t>Frost Spike Spear</t>
+  </si>
+  <si>
+    <t>Icewheel Glare</t>
+  </si>
+  <si>
+    <t>Frost Requiem</t>
+  </si>
+  <si>
+    <t>攻击使敌人减速</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>BOOMERANG</t>
+  </si>
+  <si>
+    <t>SPEAR</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>FROST</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>每次攻击命中一个敌人后增加冻结几率</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_7/weapon_7.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_8/weapon_8.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_9/weapon_9.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_10/weapon_10.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_11/weapon_11.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_12/weapon_12.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_13/weapon_13.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_7/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_8/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_9/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_10/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_11/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_12/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_13/icon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冻结敌人后增加一根冰刺在武器身边，下次攻击时射出，冰刺最多三根 </t>
+  </si>
+  <si>
+    <t>单次攻击中，每攻击到一个被冻结的敌人伤害和大小都会增加</t>
+  </si>
+  <si>
+    <t>Stun Gun</t>
+  </si>
+  <si>
+    <t>有几率秒杀敌人</t>
+  </si>
+  <si>
+    <t>Lightning Spear</t>
+  </si>
+  <si>
+    <t>Lightning Bow</t>
+  </si>
+  <si>
+    <t>同时装备Lightning Spear和Lightning Bow，弓将会以矛为子弹</t>
+  </si>
+  <si>
+    <t>触发时间内随机电击范围内的敌人</t>
+  </si>
+  <si>
+    <t>Stormcaller Staff</t>
+  </si>
+  <si>
+    <t>Thunder Tome</t>
+  </si>
+  <si>
+    <t>Storm Axe</t>
+  </si>
+  <si>
+    <t>自带高额冻结几率，额外的冻结几率转换成伤害；邪恶效果：冻结敌人时会判断一次大范围的冻结效果；邪恶增强效果：击杀敌人后召唤幽魂</t>
+  </si>
+  <si>
+    <t>BOOK/SCROLL</t>
+  </si>
+  <si>
+    <t>在落地区域大幅度牵引周围敌人，随后释放落雷</t>
+  </si>
+  <si>
+    <t>Earthwarden</t>
+  </si>
+  <si>
+    <t>Terraquake Arbalest</t>
+  </si>
+  <si>
+    <t>Stoneshard Scepter</t>
+  </si>
+  <si>
+    <t>Stoneshield Sword</t>
+  </si>
+  <si>
+    <t>Earthring Boomerang</t>
+  </si>
+  <si>
+    <t>Stonebreaker Spear</t>
+  </si>
+  <si>
+    <t>SPEAR/SHIELD</t>
+  </si>
+  <si>
+    <t>LIGHTING</t>
+  </si>
+  <si>
+    <t>EARTH</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_14/weapon_14.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_14/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_15/weapon_15.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_16/weapon_16.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_17/weapon_17.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_18/weapon_18.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_19/weapon_19.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_20/weapon_20.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_21/weapon_21.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_22/weapon_22.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_23/weapon_23.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_24/weapon_24.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_25/weapon_25.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_26/weapon_26.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_27/weapon_27.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_15/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_16/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_17/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_18/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_19/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_20/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_21/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_22/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_23/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_24/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_25/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_26/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_27/icon.png</t>
+  </si>
+  <si>
+    <t>触发时间内提高角色的魔法伤害、攻击速度以及生成物大小</t>
+  </si>
+  <si>
+    <t>发射可以在移动过程中牵引除目标敌人以外的敌人的闪电球，爆炸在爆炸区域短时间后产生一道落雷</t>
+  </si>
+  <si>
+    <t>每隔3秒随机产生一个闪电炮台，并连接到初始炮台上</t>
+  </si>
+  <si>
+    <t>保持不动时，会持续增加攻速和伤害</t>
+  </si>
+  <si>
+    <t>每命中一个敌人，增加微量的护盾</t>
+  </si>
+  <si>
+    <t>击杀敌人后增加护盾，攻速固定，额外的攻速转化为攻击力</t>
+  </si>
+  <si>
+    <t>召唤一篇区域，区域中持续缓慢增加护盾，玩家的击退、穿透率增加，敌人的飞行物速度显著降低</t>
+  </si>
+  <si>
+    <t>常态下盾牌与矛一起移动，当盾牌碎掉时，大幅增加矛的吸血、攻击速度、以及伤害，且每击杀一个敌人都会减少盾牌的恢复时间</t>
+  </si>
+  <si>
+    <t>MAX_HP</t>
+  </si>
+  <si>
+    <t>HP_REGEN</t>
+  </si>
+  <si>
+    <t>LIFE_STEAL</t>
+  </si>
+  <si>
+    <t>PHY_ATK</t>
+  </si>
+  <si>
+    <t>MAG_ATK</t>
+  </si>
+  <si>
+    <t>CRIT_RATE</t>
+  </si>
+  <si>
+    <t>CRIT_DMG</t>
+  </si>
+  <si>
+    <t>KNOCKBACK</t>
+  </si>
+  <si>
+    <t>SEARCH_RAD</t>
+  </si>
+  <si>
+    <t>SPAWN_SIZE</t>
+  </si>
+  <si>
+    <t>WEAPON_SIZE</t>
+  </si>
+  <si>
+    <t>PROJ_COUNT</t>
+  </si>
+  <si>
+    <t>FLY_SPD</t>
+  </si>
+  <si>
+    <t>ROT_SPD</t>
+  </si>
+  <si>
+    <t>PEN_RATE</t>
+  </si>
+  <si>
+    <t>ATK_CD</t>
+  </si>
+  <si>
+    <t>EFF_DUR</t>
+  </si>
+  <si>
+    <t>DECEL_DUR</t>
+  </si>
+  <si>
+    <t>SLOW_RATE</t>
+  </si>
+  <si>
+    <t>FREEZE_RATE</t>
+  </si>
+  <si>
+    <t>LCH_DMG</t>
+  </si>
+  <si>
+    <t>LCH_COUNT</t>
+  </si>
+  <si>
+    <t>MAX_POISON</t>
+  </si>
+  <si>
+    <t>NAT_GROW</t>
+  </si>
+  <si>
+    <t>DIV_STR</t>
+  </si>
+  <si>
+    <t>PICK_AXE</t>
+  </si>
+  <si>
+    <t>SCROLL_CD_REDUC</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>当前武器的攻击使敌人冻结后，短时间内增加暴击率和暴击伤害，且该时间可以叠加</t>
+  </si>
+  <si>
+    <t>Stone Boox</t>
+  </si>
+  <si>
+    <t>掷出可以阻挡子弹的石块</t>
+  </si>
+  <si>
+    <t>自带高穿透率，大子弹，命中敌人后挂上5s的岩石标记，任何攻击都会触发岩石标记，造成基于最大生命值的额外伤害，并且大幅增加该次攻击的击退</t>
+  </si>
+  <si>
+    <t>Venomfang Bow</t>
+  </si>
+  <si>
+    <t>Venom Staff</t>
+  </si>
+  <si>
+    <t>Venomvine Spear</t>
+  </si>
+  <si>
+    <t>Toxic Rage</t>
+  </si>
+  <si>
+    <t>Echo of Agony</t>
+  </si>
+  <si>
+    <t>Verdant Blade</t>
+  </si>
+  <si>
+    <t>Nature Bow</t>
+  </si>
+  <si>
+    <t>Verdant Axe</t>
+  </si>
+  <si>
+    <t>Healing Codex</t>
+  </si>
+  <si>
+    <t>Life Wheel</t>
+  </si>
+  <si>
+    <t>攻击附带x层毒素</t>
+  </si>
+  <si>
+    <t>Healing Cross</t>
+  </si>
+  <si>
+    <t>Holylight Bow</t>
+  </si>
+  <si>
+    <t>Adversity Sword</t>
+  </si>
+  <si>
+    <t>Holy Bulwark</t>
+  </si>
+  <si>
+    <t>Glory's Radiance</t>
+  </si>
+  <si>
+    <t>Inevitable Fate</t>
+  </si>
+  <si>
+    <t>Necro Staff</t>
+  </si>
+  <si>
+    <t>Death Spear</t>
+  </si>
+  <si>
+    <t>Shadow Dagger</t>
+  </si>
+  <si>
+    <t>Demon Axe</t>
+  </si>
+  <si>
+    <t>Demonic Surge</t>
+  </si>
+  <si>
+    <t>喷出剧毒区域</t>
+  </si>
+  <si>
+    <t>攻击敌人后施加x秒的标记，该敌人受到的下次毒素伤害会治疗玩家</t>
+  </si>
+  <si>
+    <t>攻击敌人时，此次攻击如果暴击则会引爆该目标身上的所有毒素层数，造成额外伤害</t>
+  </si>
+  <si>
+    <t>每完成一次成长，获得一张自然剑</t>
+  </si>
+  <si>
+    <t>拥有高额的穿透率，每次攻击结束时，当次攻击攻击到的敌人越多，短暂增加的移动速度越多</t>
+  </si>
+  <si>
+    <t>每次攻击时，击杀敌人后会增加体积，攻击结束后清除</t>
+  </si>
+  <si>
+    <t>攻击会基于血量产生不同的效果，血量高时伤害增加，血量低时攻击吸血</t>
+  </si>
+  <si>
+    <t>召唤回血阵</t>
+  </si>
+  <si>
+    <t>在范围内的友军缓慢回血；神圣加成：角色生命恢复速率</t>
+  </si>
+  <si>
+    <t>攻击到敌人后降低敌人的防御力；神圣加成：索敌范围</t>
+  </si>
+  <si>
+    <t>生命值越低攻击力、攻速越高；神圣加成：攻击速度</t>
+  </si>
+  <si>
+    <t>被破坏时以玩家为中心发出一次冲击波；神圣加成：角色减伤率</t>
+  </si>
+  <si>
+    <t>击杀敌人后随机提升某一项属性直到此次回合结束；神圣加成：攻击力</t>
+  </si>
+  <si>
+    <t>秒杀范围内所有小怪；神圣加成：生命力</t>
+  </si>
+  <si>
+    <t>暴击后提高攻击频率；邪恶加成：不再回归玩家且冷却变为0；终极邪恶加成：暴击秒杀攻击到的小怪</t>
+  </si>
+  <si>
+    <t>斩杀血量较低的敌人；邪恶加成：该武器的击杀视为所有邪恶武器的击杀；终极邪恶加成：攻击力提高</t>
+  </si>
+  <si>
+    <t>此武器的伤害越高，攻击速度越快；邪恶加成：击杀敌人后提高此武器的伤害；终极邪恶加成：生成物大小提高</t>
+  </si>
+  <si>
+    <t>击杀敌人后短时间内无视x次伤害；邪恶加成：击杀时减少所有邪恶武器的冷却（不包括自身）；终极邪恶加成：增加无视伤害的次数，增加减少的冷却值</t>
+  </si>
+  <si>
+    <t>释放多次攻击</t>
+  </si>
+  <si>
+    <t>TOXIN</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>DIVINITY</t>
+  </si>
+  <si>
+    <t>DEMON</t>
+  </si>
+  <si>
+    <t>TOXIN/NATURE</t>
+  </si>
+  <si>
+    <t>SCROLL</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_28/weapon_28.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_29/weapon_29.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_30/weapon_30.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_31/weapon_31.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_32/weapon_32.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_33/weapon_33.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_37/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_28/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_29/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_30/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_31/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_32/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_33/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_34/weapon_34.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_35/weapon_35.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_36/weapon_36.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_37/weapon_37.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_38/weapon_38.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_39/weapon_39.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_40/weapon_40.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_41/weapon_41.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_42/weapon_42.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_43/weapon_43.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_44/weapon_44.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_45/weapon_45.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_46/weapon_46.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_47/weapon_47.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_48/weapon_48.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_49/weapon_49.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_43/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_34/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_35/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_36/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_38/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_39/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_40/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_41/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_42/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_44/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_45/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_46/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_47/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_48/icon.png</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_49/icon.png</t>
+  </si>
+  <si>
+    <t>FROST/DEMON</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>POISON_DAMAGE</t>
+  </si>
+  <si>
+    <t>Miasma Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>武器的移动路径将被点燃</t>
-  </si>
-  <si>
-    <t>weapon_id</t>
-  </si>
-  <si>
-    <t>Spark Shooter</t>
-  </si>
-  <si>
-    <t>子弹为烟花，消失时爆炸并点燃爆炸区域</t>
-  </si>
-  <si>
-    <t>BOW</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_0/weapon_0.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_0/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_1/weapon_1.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_1/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_2/weapon_2.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_2/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_3/weapon_3.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_3/icon.png</t>
-  </si>
-  <si>
-    <t>Surtr's Fury</t>
-  </si>
-  <si>
-    <t>攻击时召唤陨石，陨石随机攻击一个位置</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_4/weapon_4.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_4/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_5/weapon_5.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_5/icon.png</t>
-  </si>
-  <si>
-    <t>Doom Bringer</t>
-  </si>
-  <si>
-    <t>射出自动追踪敌人的炸弹</t>
-  </si>
-  <si>
-    <t>FIREARM</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_6/weapon_6.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_6/icon.png</t>
-  </si>
-  <si>
-    <t>Frost Shield</t>
-  </si>
-  <si>
-    <t>Frostbite Touch</t>
-  </si>
-  <si>
-    <t>Snowfield Blade</t>
-  </si>
-  <si>
-    <t>Frost Balde Boomerang</t>
-  </si>
-  <si>
-    <t>Frost Spike Spear</t>
-  </si>
-  <si>
-    <t>Icewheel Glare</t>
-  </si>
-  <si>
-    <t>Frost Requiem</t>
-  </si>
-  <si>
-    <t>攻击使敌人减速</t>
-  </si>
-  <si>
-    <t>SHIELD</t>
-  </si>
-  <si>
-    <t>BOOMERANG</t>
-  </si>
-  <si>
-    <t>SPEAR</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>FROST</t>
-  </si>
-  <si>
-    <t>DAGGER</t>
-  </si>
-  <si>
-    <t>每次攻击命中一个敌人后增加冻结几率</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_7/weapon_7.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_8/weapon_8.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_9/weapon_9.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_10/weapon_10.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_11/weapon_11.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_12/weapon_12.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_13/weapon_13.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_7/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_8/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_9/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_10/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_11/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_12/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_13/icon.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冻结敌人后增加一根冰刺在武器身边，下次攻击时射出，冰刺最多三根 </t>
-  </si>
-  <si>
-    <t>单次攻击中，每攻击到一个被冻结的敌人伤害和大小都会增加</t>
-  </si>
-  <si>
-    <t>Stun Gun</t>
-  </si>
-  <si>
-    <t>有几率秒杀敌人</t>
-  </si>
-  <si>
-    <t>Lightning Spear</t>
-  </si>
-  <si>
-    <t>Lightning Bow</t>
-  </si>
-  <si>
-    <t>同时装备Lightning Spear和Lightning Bow，弓将会以矛为子弹</t>
-  </si>
-  <si>
-    <t>触发时间内随机电击范围内的敌人</t>
-  </si>
-  <si>
-    <t>Stormcaller Staff</t>
-  </si>
-  <si>
-    <t>Thunder Tome</t>
-  </si>
-  <si>
-    <t>Storm Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON_LAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击的敌人每有一个异常状态都会提升伤害，击杀敌人后会将该敌人的毒素层增加到攻击造成的毒素层数中，直到此次攻击结束清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Storm Sentry</t>
-  </si>
-  <si>
-    <t>自带高额冻结几率，额外的冻结几率转换成伤害；邪恶效果：冻结敌人时会判断一次大范围的冻结效果；邪恶增强效果：击杀敌人后召唤幽魂</t>
-  </si>
-  <si>
-    <t>BOOK/SCROLL</t>
-  </si>
-  <si>
-    <t>在落地区域大幅度牵引周围敌人，随后释放落雷</t>
-  </si>
-  <si>
-    <t>Earthwarden</t>
-  </si>
-  <si>
-    <t>Terraquake Arbalest</t>
-  </si>
-  <si>
-    <t>Stoneshard Scepter</t>
-  </si>
-  <si>
-    <t>Stoneshield Sword</t>
-  </si>
-  <si>
-    <t>Earthring Boomerang</t>
-  </si>
-  <si>
-    <t>Stonebreaker Spear</t>
-  </si>
-  <si>
-    <t>SPEAR/SHIELD</t>
-  </si>
-  <si>
-    <t>LIGHTING</t>
-  </si>
-  <si>
-    <t>EARTH</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_14/weapon_14.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_14/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_15/weapon_15.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_16/weapon_16.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_17/weapon_17.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_18/weapon_18.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_19/weapon_19.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_20/weapon_20.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_21/weapon_21.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_22/weapon_22.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_23/weapon_23.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_24/weapon_24.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_25/weapon_25.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_26/weapon_26.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_27/weapon_27.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_15/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_16/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_17/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_18/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_19/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_20/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_21/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_22/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_23/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_24/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_25/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_26/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_27/icon.png</t>
-  </si>
-  <si>
-    <t>触发时间内提高角色的魔法伤害、攻击速度以及生成物大小</t>
-  </si>
-  <si>
-    <t>发射可以在移动过程中牵引除目标敌人以外的敌人的闪电球，爆炸在爆炸区域短时间后产生一道落雷</t>
-  </si>
-  <si>
-    <t>每隔3秒随机产生一个闪电炮台，并连接到初始炮台上</t>
-  </si>
-  <si>
-    <t>保持不动时，会持续增加攻速和伤害</t>
-  </si>
-  <si>
-    <t>每命中一个敌人，增加微量的护盾</t>
-  </si>
-  <si>
-    <t>击杀敌人后增加护盾，攻速固定，额外的攻速转化为攻击力</t>
-  </si>
-  <si>
-    <t>召唤一篇区域，区域中持续缓慢增加护盾，玩家的击退、穿透率增加，敌人的飞行物速度显著降低</t>
-  </si>
-  <si>
-    <t>常态下盾牌与矛一起移动，当盾牌碎掉时，大幅增加矛的吸血、攻击速度、以及伤害，且每击杀一个敌人都会减少盾牌的恢复时间</t>
-  </si>
-  <si>
-    <t>MAX_HP</t>
-  </si>
-  <si>
-    <t>HP_REGEN</t>
-  </si>
-  <si>
-    <t>LIFE_STEAL</t>
-  </si>
-  <si>
-    <t>PHY_ATK</t>
-  </si>
-  <si>
-    <t>MAG_ATK</t>
-  </si>
-  <si>
-    <t>CRIT_RATE</t>
-  </si>
-  <si>
-    <t>CRIT_DMG</t>
-  </si>
-  <si>
-    <t>KNOCKBACK</t>
-  </si>
-  <si>
-    <t>SEARCH_RAD</t>
-  </si>
-  <si>
-    <t>SPAWN_SIZE</t>
-  </si>
-  <si>
-    <t>WEAPON_SIZE</t>
-  </si>
-  <si>
-    <t>PROJ_COUNT</t>
-  </si>
-  <si>
-    <t>FLY_SPD</t>
-  </si>
-  <si>
-    <t>ROT_SPD</t>
-  </si>
-  <si>
-    <t>PEN_RATE</t>
-  </si>
-  <si>
-    <t>ATK_CD</t>
-  </si>
-  <si>
-    <t>EFF_DUR</t>
-  </si>
-  <si>
-    <t>DECEL_DUR</t>
-  </si>
-  <si>
-    <t>SLOW_RATE</t>
-  </si>
-  <si>
-    <t>FREEZE_RATE</t>
-  </si>
-  <si>
-    <t>LCH_DMG</t>
-  </si>
-  <si>
-    <t>LCH_COUNT</t>
-  </si>
-  <si>
-    <t>POISON_LAY</t>
-  </si>
-  <si>
-    <t>MAX_POISON</t>
-  </si>
-  <si>
-    <t>NAT_GROW</t>
-  </si>
-  <si>
-    <t>DIV_STR</t>
-  </si>
-  <si>
-    <t>PICK_AXE</t>
-  </si>
-  <si>
-    <t>SCROLL_CD_REDUC</t>
-  </si>
-  <si>
-    <t>elements</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>当前武器的攻击使敌人冻结后，短时间内增加暴击率和暴击伤害，且该时间可以叠加</t>
-  </si>
-  <si>
-    <t>Stone Boox</t>
-  </si>
-  <si>
-    <t>掷出可以阻挡子弹的石块</t>
-  </si>
-  <si>
-    <t>自带高穿透率，大子弹，命中敌人后挂上5s的岩石标记，任何攻击都会触发岩石标记，造成基于最大生命值的额外伤害，并且大幅增加该次攻击的击退</t>
-  </si>
-  <si>
-    <t>Venomfang Bow</t>
-  </si>
-  <si>
-    <t>Venom Staff</t>
-  </si>
-  <si>
-    <t>Miasma Gun</t>
-  </si>
-  <si>
-    <t>Venomvine Spear</t>
-  </si>
-  <si>
-    <t>Toxic Rage</t>
-  </si>
-  <si>
-    <t>Echo of Agony</t>
-  </si>
-  <si>
-    <t>Verdant Blade</t>
-  </si>
-  <si>
-    <t>Nature Bow</t>
-  </si>
-  <si>
-    <t>Verdant Axe</t>
-  </si>
-  <si>
-    <t>Healing Codex</t>
-  </si>
-  <si>
-    <t>Life Wheel</t>
-  </si>
-  <si>
-    <t>攻击附带x层毒素</t>
-  </si>
-  <si>
-    <t>Healing Cross</t>
-  </si>
-  <si>
-    <t>Holylight Bow</t>
-  </si>
-  <si>
-    <t>Adversity Sword</t>
-  </si>
-  <si>
-    <t>Holy Bulwark</t>
-  </si>
-  <si>
-    <t>Glory's Radiance</t>
-  </si>
-  <si>
-    <t>Inevitable Fate</t>
-  </si>
-  <si>
-    <t>Necro Staff</t>
-  </si>
-  <si>
-    <t>Death Spear</t>
-  </si>
-  <si>
-    <t>Shadow Dagger</t>
-  </si>
-  <si>
-    <t>Demon Axe</t>
-  </si>
-  <si>
-    <t>Demonic Surge</t>
-  </si>
-  <si>
-    <t>喷出剧毒区域</t>
-  </si>
-  <si>
-    <t>攻击敌人后施加x秒的标记，该敌人受到的下次毒素伤害会治疗玩家</t>
-  </si>
-  <si>
-    <t>攻击敌人时，此次攻击如果暴击则会引爆该目标身上的所有毒素层数，造成额外伤害</t>
-  </si>
-  <si>
-    <t>攻击异常状态的敌人伤害增加，击杀敌人后会将该敌人的毒素层增加到攻击造成的毒素层数中，直到此次攻击结束清除</t>
-  </si>
-  <si>
-    <t>每完成一次成长，获得一张自然剑</t>
-  </si>
-  <si>
-    <t>拥有高额的穿透率，每次攻击结束时，当次攻击攻击到的敌人越多，短暂增加的移动速度越多</t>
-  </si>
-  <si>
-    <t>每次攻击时，击杀敌人后会增加体积，攻击结束后清除</t>
-  </si>
-  <si>
-    <t>攻击会基于血量产生不同的效果，血量高时伤害增加，血量低时攻击吸血</t>
-  </si>
-  <si>
-    <t>召唤回血阵</t>
-  </si>
-  <si>
-    <t>在范围内的友军缓慢回血；神圣加成：角色生命恢复速率</t>
-  </si>
-  <si>
-    <t>攻击到敌人后降低敌人的防御力；神圣加成：索敌范围</t>
-  </si>
-  <si>
-    <t>生命值越低攻击力、攻速越高；神圣加成：攻击速度</t>
-  </si>
-  <si>
-    <t>被破坏时以玩家为中心发出一次冲击波；神圣加成：角色减伤率</t>
-  </si>
-  <si>
-    <t>击杀敌人后随机提升某一项属性直到此次回合结束；神圣加成：攻击力</t>
-  </si>
-  <si>
-    <t>秒杀范围内所有小怪；神圣加成：生命力</t>
-  </si>
-  <si>
-    <t>暴击后提高攻击频率；邪恶加成：不再回归玩家且冷却变为0；终极邪恶加成：暴击秒杀攻击到的小怪</t>
-  </si>
-  <si>
-    <t>斩杀血量较低的敌人；邪恶加成：该武器的击杀视为所有邪恶武器的击杀；终极邪恶加成：攻击力提高</t>
-  </si>
-  <si>
-    <t>此武器的伤害越高，攻击速度越快；邪恶加成：击杀敌人后提高此武器的伤害；终极邪恶加成：生成物大小提高</t>
-  </si>
-  <si>
-    <t>击杀敌人后短时间内无视x次伤害；邪恶加成：击杀时减少所有邪恶武器的冷却（不包括自身）；终极邪恶加成：增加无视伤害的次数，增加减少的冷却值</t>
-  </si>
-  <si>
-    <t>释放多次攻击</t>
-  </si>
-  <si>
-    <t>TOXIN</t>
-  </si>
-  <si>
-    <t>NATURE</t>
-  </si>
-  <si>
-    <t>DIVINITY</t>
-  </si>
-  <si>
-    <t>DEMON</t>
-  </si>
-  <si>
-    <t>TOXIN/NATURE</t>
-  </si>
-  <si>
-    <t>SCROLL</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_28/weapon_28.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_29/weapon_29.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_30/weapon_30.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_31/weapon_31.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_32/weapon_32.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_33/weapon_33.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_37/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_28/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_29/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_30/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_31/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_32/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_33/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_34/weapon_34.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_35/weapon_35.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_36/weapon_36.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_37/weapon_37.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_38/weapon_38.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_39/weapon_39.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_40/weapon_40.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_41/weapon_41.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_42/weapon_42.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_43/weapon_43.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_44/weapon_44.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_45/weapon_45.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_46/weapon_46.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_47/weapon_47.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_48/weapon_48.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_49/weapon_49.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_43/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_34/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_35/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_36/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_38/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_39/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_40/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_41/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_42/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_44/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_45/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_46/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_47/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_48/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_49/icon.png</t>
-  </si>
-  <si>
-    <t>FROST/DEMON</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>POISON_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +853,22 @@
     <font>
       <sz val="16"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1127,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,46 +1399,20 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1606,6 +1601,41 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5292,11 +5322,11 @@
     <tableColumn id="34" xr3:uid="{A17D1816-87E4-4D41-B6F6-F6902B968918}" name="LCH_COUNT" dataDxfId="12"/>
     <tableColumn id="35" xr3:uid="{751E6DA3-3743-42CC-89E3-5EF0E8BE4E84}" name="POISON_LAY" dataDxfId="11"/>
     <tableColumn id="36" xr3:uid="{8E4D91E4-74F0-42EB-A74B-9CE85A16CF7D}" name="MAX_POISON" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{24B11305-D783-4C8F-90CF-76AE324CFDB2}" name="POISON_DAMAGE" dataDxfId="0"/>
-    <tableColumn id="37" xr3:uid="{E035CCBD-1773-4D08-95C9-44920EC8EACB}" name="NAT_GROW" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{6450A074-7E7E-4569-B875-F6EDFD2776BF}" name="DIV_STR" dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{C0C7B4E8-7D45-48BF-885E-A9BB8F8CADE1}" name="PICK_AXE" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{8C926E07-1639-4F8D-8FCB-ED5C398A0900}" name="SCROLL_CD_REDUC" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{24B11305-D783-4C8F-90CF-76AE324CFDB2}" name="POISON_DAMAGE" dataDxfId="9"/>
+    <tableColumn id="37" xr3:uid="{E035CCBD-1773-4D08-95C9-44920EC8EACB}" name="NAT_GROW" dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{6450A074-7E7E-4569-B875-F6EDFD2776BF}" name="DIV_STR" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{C0C7B4E8-7D45-48BF-885E-A9BB8F8CADE1}" name="PICK_AXE" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{8C926E07-1639-4F8D-8FCB-ED5C398A0900}" name="SCROLL_CD_REDUC" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5582,29 +5612,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="36" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="36" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="92.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="92.58203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="36" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="36" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="36" customWidth="1"/>
-    <col min="10" max="38" width="16.625" style="39" customWidth="1"/>
-    <col min="39" max="40" width="100.625" style="36" customWidth="1"/>
-    <col min="41" max="16384" width="16.625" style="39"/>
+    <col min="8" max="9" width="20.58203125" style="36" customWidth="1"/>
+    <col min="10" max="38" width="16.58203125" style="39" customWidth="1"/>
+    <col min="39" max="40" width="100.58203125" style="36" customWidth="1"/>
+    <col min="41" max="16384" width="16.58203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5625,97 +5655,97 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="N1" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="O1" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="P1" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="R1" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="S1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="T1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="U1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="V1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="W1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="X1" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="Y1" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="Z1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="AA1" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AB1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AC1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="AB1" s="49" t="s">
+      <c r="AD1" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AE1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AF1" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="49" t="s">
+      <c r="AH1" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="49" t="s">
+      <c r="AJ1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="49" t="s">
+      <c r="AK1" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI1" s="49" t="s">
+      <c r="AL1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="AJ1" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK1" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL1" s="51" t="s">
-        <v>158</v>
       </c>
       <c r="AM1" s="62" t="s">
         <v>1</v>
@@ -5724,7 +5754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -5735,7 +5765,7 @@
         <v>-1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -5840,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="AM2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5857,7 +5887,7 @@
         <v>-1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -5962,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="AM3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6084,13 +6114,13 @@
         <v>0</v>
       </c>
       <c r="AM4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6100,8 +6130,8 @@
       <c r="C5" s="11">
         <v>-1</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
+      <c r="D5" s="85" t="s">
+        <v>257</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -6206,24 +6236,24 @@
         <v>0</v>
       </c>
       <c r="AM5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AN5" s="11" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>-1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7">
         <v>4</v>
@@ -6328,24 +6358,24 @@
         <v>0</v>
       </c>
       <c r="AM6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AN6" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11">
         <v>-1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -6357,7 +6387,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>6</v>
@@ -6450,24 +6480,24 @@
         <v>0</v>
       </c>
       <c r="AM7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AN7" s="11" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>-1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -6479,7 +6509,7 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>6</v>
@@ -6572,24 +6602,24 @@
         <v>0</v>
       </c>
       <c r="AM8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AN8" s="6" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16">
         <v>-1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -6601,10 +6631,10 @@
         <v>-1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="16">
         <v>100</v>
@@ -6694,24 +6724,24 @@
         <v>0</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21">
         <v>-1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="22">
         <v>1</v>
@@ -6723,10 +6753,10 @@
         <v>-1</v>
       </c>
       <c r="H10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="21">
         <v>0</v>
@@ -6816,24 +6846,24 @@
         <v>0</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AN10" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="16">
         <v>-1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" s="17">
         <v>2</v>
@@ -6845,10 +6875,10 @@
         <v>-1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="16">
         <v>0</v>
@@ -6938,24 +6968,24 @@
         <v>0</v>
       </c>
       <c r="AM11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="21">
         <v>-1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -6967,10 +6997,10 @@
         <v>-1</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="21">
         <v>0</v>
@@ -7060,24 +7090,24 @@
         <v>0</v>
       </c>
       <c r="AM12" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="16">
         <v>-1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="17">
         <v>3</v>
@@ -7089,10 +7119,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="16">
         <v>0</v>
@@ -7182,24 +7212,24 @@
         <v>0</v>
       </c>
       <c r="AM13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="21">
         <v>-1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="22">
         <v>4</v>
@@ -7211,10 +7241,10 @@
         <v>-1</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="21">
         <v>0</v>
@@ -7304,24 +7334,24 @@
         <v>0</v>
       </c>
       <c r="AM14" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="16">
         <v>-1</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="17">
         <v>5</v>
@@ -7336,7 +7366,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -7426,24 +7456,24 @@
         <v>0</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="26">
         <v>-1</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7455,10 +7485,10 @@
         <v>-1</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="26">
         <v>0</v>
@@ -7548,24 +7578,24 @@
         <v>0</v>
       </c>
       <c r="AM16" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AN16" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>15</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="31">
         <v>-1</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="32">
         <v>2</v>
@@ -7577,10 +7607,10 @@
         <v>-1</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" s="31">
         <v>0</v>
@@ -7670,24 +7700,24 @@
         <v>0</v>
       </c>
       <c r="AM17" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN17" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="26">
         <v>-1</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="27">
         <v>2</v>
@@ -7699,10 +7729,10 @@
         <v>-1</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="26">
         <v>0</v>
@@ -7792,24 +7822,24 @@
         <v>0</v>
       </c>
       <c r="AM18" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AN18" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>17</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="31">
         <v>-1</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="32">
         <v>3</v>
@@ -7821,10 +7851,10 @@
         <v>-1</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="31">
         <v>0</v>
@@ -7914,24 +7944,24 @@
         <v>0</v>
       </c>
       <c r="AM19" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN19" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="26">
         <v>-1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="27">
         <v>3</v>
@@ -7943,10 +7973,10 @@
         <v>-1</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="26">
         <v>0</v>
@@ -8036,24 +8066,24 @@
         <v>0.5</v>
       </c>
       <c r="AM20" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AN20" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>19</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="31">
         <v>-1</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="32">
         <v>4</v>
@@ -8068,7 +8098,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" s="31">
         <v>0</v>
@@ -8158,24 +8188,24 @@
         <v>0</v>
       </c>
       <c r="AM21" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AN21" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="C22" s="26">
         <v>-1</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="27">
         <v>5</v>
@@ -8190,7 +8220,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" s="26">
         <v>0</v>
@@ -8280,24 +8310,24 @@
         <v>0</v>
       </c>
       <c r="AM22" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AN22" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="58">
         <v>-1</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="59">
         <v>1</v>
@@ -8309,10 +8339,10 @@
         <v>-1</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J23" s="58">
         <v>0</v>
@@ -8402,24 +8432,24 @@
         <v>0</v>
       </c>
       <c r="AM23" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AN23" s="58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52">
         <v>22</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="53">
         <v>-1</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" s="54">
         <v>2</v>
@@ -8431,10 +8461,10 @@
         <v>-1</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J24" s="53">
         <v>0</v>
@@ -8524,24 +8554,24 @@
         <v>0</v>
       </c>
       <c r="AM24" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AN24" s="53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C25" s="58">
         <v>-1</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E25" s="59">
         <v>2</v>
@@ -8556,7 +8586,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25" s="58">
         <v>0</v>
@@ -8646,24 +8676,24 @@
         <v>0</v>
       </c>
       <c r="AM25" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AN25" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52">
         <v>24</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="53">
         <v>-1</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="54">
         <v>3</v>
@@ -8678,7 +8708,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26" s="53">
         <v>0</v>
@@ -8768,24 +8798,24 @@
         <v>0</v>
       </c>
       <c r="AM26" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AN26" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57">
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="58">
         <v>-1</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E27" s="59">
         <v>3</v>
@@ -8797,10 +8827,10 @@
         <v>-1</v>
       </c>
       <c r="H27" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J27" s="58">
         <v>0</v>
@@ -8890,24 +8920,24 @@
         <v>0</v>
       </c>
       <c r="AM27" s="58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AN27" s="58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52">
         <v>26</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="53">
         <v>-1</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E28" s="54">
         <v>4</v>
@@ -8919,10 +8949,10 @@
         <v>-1</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J28" s="53">
         <v>0</v>
@@ -9012,24 +9042,24 @@
         <v>0</v>
       </c>
       <c r="AM28" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN28" s="53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="58">
         <v>-1</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="59">
         <v>5</v>
@@ -9041,10 +9071,10 @@
         <v>-1</v>
       </c>
       <c r="H29" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="58" t="s">
         <v>92</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>94</v>
       </c>
       <c r="J29" s="58">
         <v>100</v>
@@ -9134,24 +9164,24 @@
         <v>0</v>
       </c>
       <c r="AM29" s="58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AN29" s="58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="63">
         <v>28</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C30" s="64">
         <v>-1</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E30" s="65">
         <v>1</v>
@@ -9163,10 +9193,10 @@
         <v>-1</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J30" s="64">
         <v>0</v>
@@ -9256,24 +9286,24 @@
         <v>0</v>
       </c>
       <c r="AM30" s="64" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AN30" s="64" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69">
         <v>29</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="69">
         <v>-1</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" s="69">
         <v>2</v>
@@ -9285,10 +9315,10 @@
         <v>-1</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J31" s="69">
         <v>0</v>
@@ -9303,19 +9333,19 @@
         <v>0</v>
       </c>
       <c r="N31" s="69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="69">
         <v>0</v>
       </c>
       <c r="P31" s="69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="69">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R31" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S31" s="69">
         <v>0</v>
@@ -9324,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W31" s="69">
         <v>720</v>
@@ -9336,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA31" s="69">
         <v>0</v>
@@ -9378,24 +9408,24 @@
         <v>0</v>
       </c>
       <c r="AM31" s="69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AN31" s="69" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="63">
         <v>30</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>167</v>
+      <c r="B32" s="84" t="s">
+        <v>256</v>
       </c>
       <c r="C32" s="64">
         <v>-1</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E32" s="65">
         <v>3</v>
@@ -9407,10 +9437,10 @@
         <v>-1</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J32" s="64">
         <v>0</v>
@@ -9422,22 +9452,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="64">
         <v>0</v>
       </c>
       <c r="P32" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R32" s="64">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S32" s="64">
         <v>0</v>
@@ -9446,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" s="64">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W32" s="64">
         <v>720</v>
@@ -9458,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="Y32" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA32" s="64">
         <v>0</v>
@@ -9500,24 +9530,24 @@
         <v>0</v>
       </c>
       <c r="AM32" s="64" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN32" s="64" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="68">
         <v>31</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C33" s="68">
         <v>-1</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E33" s="68">
         <v>3</v>
@@ -9529,10 +9559,10 @@
         <v>-1</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J33" s="68">
         <v>0</v>
@@ -9544,22 +9574,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="68">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N33" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="68">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P33" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R33" s="68">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S33" s="68">
         <v>0</v>
@@ -9580,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="Y33" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA33" s="68">
         <v>0</v>
@@ -9622,24 +9652,24 @@
         <v>0</v>
       </c>
       <c r="AM33" s="68" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AN33" s="68" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63">
         <v>32</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C34" s="64">
         <v>-1</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E34" s="65">
         <v>4</v>
@@ -9651,10 +9681,10 @@
         <v>-1</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J34" s="64">
         <v>0</v>
@@ -9666,22 +9696,22 @@
         <v>0</v>
       </c>
       <c r="M34" s="64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N34" s="64">
         <v>0</v>
       </c>
       <c r="O34" s="64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P34" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R34" s="64">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S34" s="64">
         <v>0</v>
@@ -9702,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z34" s="64">
         <v>0</v>
@@ -9744,24 +9774,24 @@
         <v>0</v>
       </c>
       <c r="AM34" s="64" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN34" s="64" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>33</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C35" s="68">
         <v>-1</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="E35" s="68">
         <v>5</v>
@@ -9773,10 +9803,10 @@
         <v>-1</v>
       </c>
       <c r="H35" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J35" s="68">
         <v>0</v>
@@ -9788,22 +9818,22 @@
         <v>0</v>
       </c>
       <c r="M35" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N35" s="68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O35" s="68">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P35" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="68">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R35" s="68">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S35" s="68">
         <v>0</v>
@@ -9815,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="68">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="W35" s="68">
         <v>720</v>
@@ -9824,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="68">
         <v>0</v>
@@ -9866,24 +9896,24 @@
         <v>0</v>
       </c>
       <c r="AM35" s="68" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AN35" s="68" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="70">
         <v>34</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="70">
         <v>-1</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E36" s="70">
         <v>1</v>
@@ -9898,7 +9928,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="70" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J36" s="70">
         <v>0</v>
@@ -9988,24 +10018,24 @@
         <v>0</v>
       </c>
       <c r="AM36" s="70" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AN36" s="70" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="72">
         <v>35</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C37" s="72">
         <v>-1</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E37" s="72">
         <v>1</v>
@@ -10017,10 +10047,10 @@
         <v>-1</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J37" s="72">
         <v>0</v>
@@ -10110,24 +10140,24 @@
         <v>0</v>
       </c>
       <c r="AM37" s="72" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AN37" s="72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="71">
         <v>36</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C38" s="71">
         <v>-1</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E38" s="71">
         <v>2</v>
@@ -10142,7 +10172,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J38" s="71">
         <v>0</v>
@@ -10232,24 +10262,24 @@
         <v>0</v>
       </c>
       <c r="AM38" s="71" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AN38" s="71" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="72">
         <v>37</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C39" s="72">
         <v>-1</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E39" s="72">
         <v>4</v>
@@ -10261,10 +10291,10 @@
         <v>-1</v>
       </c>
       <c r="H39" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J39" s="72">
         <v>0</v>
@@ -10354,24 +10384,24 @@
         <v>0</v>
       </c>
       <c r="AM39" s="72" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AN39" s="72" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="71">
         <v>38</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C40" s="71">
         <v>-1</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E40" s="71">
         <v>4</v>
@@ -10386,7 +10416,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="71" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J40" s="71">
         <v>0</v>
@@ -10476,24 +10506,24 @@
         <v>0</v>
       </c>
       <c r="AM40" s="71" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AN40" s="71" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="75">
         <v>39</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C41" s="75">
         <v>-1</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E41" s="75">
         <v>1</v>
@@ -10508,7 +10538,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J41" s="75">
         <v>0</v>
@@ -10598,24 +10628,24 @@
         <v>0</v>
       </c>
       <c r="AM41" s="75" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AN41" s="75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="76">
         <v>40</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C42" s="76">
         <v>-1</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E42" s="76">
         <v>2</v>
@@ -10627,10 +10657,10 @@
         <v>-1</v>
       </c>
       <c r="H42" s="76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J42" s="76">
         <v>0</v>
@@ -10720,24 +10750,24 @@
         <v>0</v>
       </c>
       <c r="AM42" s="76" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN42" s="76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="75">
         <v>41</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C43" s="75">
         <v>-1</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E43" s="75">
         <v>3</v>
@@ -10752,7 +10782,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J43" s="75">
         <v>0</v>
@@ -10842,24 +10872,24 @@
         <v>0</v>
       </c>
       <c r="AM43" s="75" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AN43" s="75" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="76">
         <v>42</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C44" s="76">
         <v>-1</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E44" s="76">
         <v>3</v>
@@ -10871,10 +10901,10 @@
         <v>-1</v>
       </c>
       <c r="H44" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" s="76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J44" s="76">
         <v>0</v>
@@ -10964,24 +10994,24 @@
         <v>0</v>
       </c>
       <c r="AM44" s="76" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AN44" s="76" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="75">
         <v>43</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C45" s="75">
         <v>-1</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E45" s="75">
         <v>4</v>
@@ -10993,10 +11023,10 @@
         <v>-1</v>
       </c>
       <c r="H45" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" s="75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J45" s="75">
         <v>0</v>
@@ -11086,24 +11116,24 @@
         <v>0</v>
       </c>
       <c r="AM45" s="75" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN45" s="75" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="76">
         <v>44</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C46" s="76">
         <v>-1</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E46" s="76">
         <v>5</v>
@@ -11115,10 +11145,10 @@
         <v>-1</v>
       </c>
       <c r="H46" s="76" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I46" s="76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J46" s="76">
         <v>0</v>
@@ -11208,24 +11238,24 @@
         <v>0</v>
       </c>
       <c r="AM46" s="76" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AN46" s="76" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="73">
         <v>45</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C47" s="73">
         <v>-1</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E47" s="73">
         <v>1</v>
@@ -11237,10 +11267,10 @@
         <v>-1</v>
       </c>
       <c r="H47" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I47" s="73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J47" s="73">
         <v>0</v>
@@ -11330,24 +11360,24 @@
         <v>0</v>
       </c>
       <c r="AM47" s="73" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AN47" s="73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="74">
         <v>46</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C48" s="74">
         <v>-1</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E48" s="74">
         <v>1</v>
@@ -11359,10 +11389,10 @@
         <v>-1</v>
       </c>
       <c r="H48" s="74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" s="74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J48" s="74">
         <v>0</v>
@@ -11452,24 +11482,24 @@
         <v>0</v>
       </c>
       <c r="AM48" s="74" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AN48" s="74" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="73">
         <v>47</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C49" s="73">
         <v>-1</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E49" s="73">
         <v>2</v>
@@ -11481,10 +11511,10 @@
         <v>-1</v>
       </c>
       <c r="H49" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I49" s="73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J49" s="73">
         <v>0</v>
@@ -11574,24 +11604,24 @@
         <v>0</v>
       </c>
       <c r="AM49" s="73" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN49" s="73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="74">
         <v>48</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="74">
         <v>-1</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E50" s="74">
         <v>3</v>
@@ -11606,7 +11636,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J50" s="74">
         <v>0</v>
@@ -11696,24 +11726,24 @@
         <v>0</v>
       </c>
       <c r="AM50" s="74" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AN50" s="74" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="73">
         <v>49</v>
       </c>
       <c r="B51" s="73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C51" s="73">
         <v>-1</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E51" s="73">
         <v>4</v>
@@ -11725,10 +11755,10 @@
         <v>-1</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I51" s="73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J51" s="73">
         <v>0</v>
@@ -11818,13 +11848,13 @@
         <v>0</v>
       </c>
       <c r="AM51" s="73" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN51" s="73" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -11856,7 +11886,7 @@
       <c r="AK52" s="36"/>
       <c r="AL52" s="38"/>
     </row>
-    <row r="53" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -11888,7 +11918,7 @@
       <c r="AK53" s="36"/>
       <c r="AL53" s="38"/>
     </row>
-    <row r="54" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -11920,7 +11950,7 @@
       <c r="AK54" s="36"/>
       <c r="AL54" s="38"/>
     </row>
-    <row r="55" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -11952,7 +11982,7 @@
       <c r="AK55" s="36"/>
       <c r="AL55" s="38"/>
     </row>
-    <row r="56" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -11984,7 +12014,7 @@
       <c r="AK56" s="36"/>
       <c r="AL56" s="38"/>
     </row>
-    <row r="57" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -12016,7 +12046,7 @@
       <c r="AK57" s="36"/>
       <c r="AL57" s="38"/>
     </row>
-    <row r="58" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -12048,7 +12078,7 @@
       <c r="AK58" s="36"/>
       <c r="AL58" s="38"/>
     </row>
-    <row r="59" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -12080,7 +12110,7 @@
       <c r="AK59" s="36"/>
       <c r="AL59" s="38"/>
     </row>
-    <row r="60" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -12112,7 +12142,7 @@
       <c r="AK60" s="36"/>
       <c r="AL60" s="38"/>
     </row>
-    <row r="61" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -12144,7 +12174,7 @@
       <c r="AK61" s="36"/>
       <c r="AL61" s="38"/>
     </row>
-    <row r="62" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -12176,7 +12206,7 @@
       <c r="AK62" s="36"/>
       <c r="AL62" s="38"/>
     </row>
-    <row r="63" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -12208,7 +12238,7 @@
       <c r="AK63" s="36"/>
       <c r="AL63" s="38"/>
     </row>
-    <row r="64" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -12240,7 +12270,7 @@
       <c r="AK64" s="36"/>
       <c r="AL64" s="38"/>
     </row>
-    <row r="65" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
@@ -12272,7 +12302,7 @@
       <c r="AK65" s="36"/>
       <c r="AL65" s="38"/>
     </row>
-    <row r="66" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
@@ -12304,7 +12334,7 @@
       <c r="AK66" s="36"/>
       <c r="AL66" s="38"/>
     </row>
-    <row r="67" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
@@ -12336,7 +12366,7 @@
       <c r="AK67" s="36"/>
       <c r="AL67" s="38"/>
     </row>
-    <row r="68" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
@@ -12368,7 +12398,7 @@
       <c r="AK68" s="36"/>
       <c r="AL68" s="38"/>
     </row>
-    <row r="69" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
@@ -12400,7 +12430,7 @@
       <c r="AK69" s="36"/>
       <c r="AL69" s="38"/>
     </row>
-    <row r="70" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -12432,7 +12462,7 @@
       <c r="AK70" s="36"/>
       <c r="AL70" s="38"/>
     </row>
-    <row r="71" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -12464,7 +12494,7 @@
       <c r="AK71" s="36"/>
       <c r="AL71" s="38"/>
     </row>
-    <row r="72" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -12496,7 +12526,7 @@
       <c r="AK72" s="36"/>
       <c r="AL72" s="38"/>
     </row>
-    <row r="73" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="35"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -12528,7 +12558,7 @@
       <c r="AK73" s="36"/>
       <c r="AL73" s="38"/>
     </row>
-    <row r="74" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -12560,7 +12590,7 @@
       <c r="AK74" s="36"/>
       <c r="AL74" s="38"/>
     </row>
-    <row r="75" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -12592,7 +12622,7 @@
       <c r="AK75" s="36"/>
       <c r="AL75" s="38"/>
     </row>
-    <row r="76" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -12624,7 +12654,7 @@
       <c r="AK76" s="36"/>
       <c r="AL76" s="38"/>
     </row>
-    <row r="77" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -12672,23 +12702,23 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:AL24 J25:S25 U25:AL25 J26:AL29">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:AL51">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\7.19\Game\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D161D-10C5-4A2C-BBF5-9A3A54A5087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A7DB6-0B90-4B4A-9086-6F90B948A068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
   <si>
     <t>weapon_name</t>
   </si>
@@ -91,27 +91,15 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_0/weapon_0.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_0/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_1/weapon_1.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_1/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_2/weapon_2.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_2/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_3/weapon_3.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_3/icon.png</t>
-  </si>
-  <si>
     <t>Surtr's Fury</t>
   </si>
   <si>
@@ -121,15 +109,9 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_4/weapon_4.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_4/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_5/weapon_5.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_5/icon.png</t>
-  </si>
-  <si>
     <t>Doom Bringer</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_6/weapon_6.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_6/icon.png</t>
-  </si>
-  <si>
     <t>Frost Shield</t>
   </si>
   <si>
@@ -211,27 +190,6 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_13/weapon_13.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_7/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_8/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_9/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_10/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_11/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_12/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_13/icon.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">冻结敌人后增加一根冰刺在武器身边，下次攻击时射出，冰刺最多三根 </t>
   </si>
   <si>
@@ -304,9 +262,6 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_14/weapon_14.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_14/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_15/weapon_15.tscn</t>
   </si>
   <si>
@@ -346,45 +301,6 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_27/weapon_27.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_15/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_16/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_17/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_18/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_19/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_20/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_21/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_22/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_23/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_24/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_25/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_26/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_27/icon.png</t>
-  </si>
-  <si>
     <t>触发时间内提高角色的魔法伤害、攻击速度以及生成物大小</t>
   </si>
   <si>
@@ -667,27 +583,6 @@
     <t>res://src/main/scene/role/standard_weapons/weapon_33/weapon_33.tscn</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_37/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_28/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_29/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_30/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_31/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_32/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_33/icon.png</t>
-  </si>
-  <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_34/weapon_34.tscn</t>
   </si>
   <si>
@@ -737,18 +632,6 @@
   </si>
   <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_43/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_34/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_35/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_36/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_38/icon.png</t>
   </si>
   <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_39/icon.png</t>
@@ -808,6 +691,156 @@
   <si>
     <t>Storm Sentry</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_0/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_1/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_2/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_3/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_4/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_5/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_6/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_7/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_8/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_9/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_10/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_11/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_12/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_13/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_14/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_15/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_16/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_17/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_18/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_19/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_20/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_21/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_22/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_23/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_24/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_25/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_26/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_27/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_28/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_29/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_30/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_31/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_32/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_33/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_34/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_35/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_36/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_37/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_38/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_39/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_40/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_41/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_42/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_43/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_44/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_45/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_46/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_47/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_48/card_texture.tres</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/standard_weapons/weapon_49/card_texture.tres</t>
   </si>
 </sst>
 </file>
@@ -5612,27 +5645,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="36" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="36" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="92.58203125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="92.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="36" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="36" customWidth="1"/>
-    <col min="8" max="9" width="20.58203125" style="36" customWidth="1"/>
-    <col min="10" max="38" width="16.58203125" style="39" customWidth="1"/>
-    <col min="39" max="40" width="100.58203125" style="36" customWidth="1"/>
-    <col min="41" max="16384" width="16.58203125" style="39"/>
+    <col min="8" max="9" width="20.625" style="36" customWidth="1"/>
+    <col min="10" max="38" width="16.625" style="39" customWidth="1"/>
+    <col min="39" max="40" width="100.625" style="36" customWidth="1"/>
+    <col min="41" max="16384" width="16.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5655,97 +5688,97 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="R1" s="46" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="S1" s="46" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="T1" s="46" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="X1" s="47" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="49" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="49" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="AC1" s="49" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="AD1" s="49" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="49" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="86" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="AG1" s="49" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="49" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="AI1" s="49" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="49" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="50" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="51" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="62" t="s">
         <v>1</v>
@@ -5754,7 +5787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -5765,7 +5798,7 @@
         <v>-1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -5873,10 +5906,10 @@
         <v>22</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5887,7 +5920,7 @@
         <v>-1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -5992,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6114,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6131,7 +6164,7 @@
         <v>-1</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -6236,24 +6269,24 @@
         <v>0</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN5" s="11" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
         <v>-1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>4</v>
@@ -6358,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6480,24 +6513,24 @@
         <v>0</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>-1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -6509,7 +6542,7 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>6</v>
@@ -6602,24 +6635,24 @@
         <v>0</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="16">
         <v>-1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -6631,10 +6664,10 @@
         <v>-1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J9" s="16">
         <v>100</v>
@@ -6724,24 +6757,24 @@
         <v>0</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="21">
         <v>-1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22">
         <v>1</v>
@@ -6753,10 +6786,10 @@
         <v>-1</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J10" s="21">
         <v>0</v>
@@ -6846,24 +6879,24 @@
         <v>0</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AN10" s="21" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="16">
         <v>-1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E11" s="17">
         <v>2</v>
@@ -6875,10 +6908,10 @@
         <v>-1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J11" s="16">
         <v>0</v>
@@ -6968,24 +7001,24 @@
         <v>0</v>
       </c>
       <c r="AM11" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AN11" s="16" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" s="21">
         <v>-1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -6997,10 +7030,10 @@
         <v>-1</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J12" s="21">
         <v>0</v>
@@ -7090,24 +7123,24 @@
         <v>0</v>
       </c>
       <c r="AM12" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AN12" s="21" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C13" s="16">
         <v>-1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E13" s="17">
         <v>3</v>
@@ -7119,10 +7152,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J13" s="16">
         <v>0</v>
@@ -7212,24 +7245,24 @@
         <v>0</v>
       </c>
       <c r="AM13" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C14" s="21">
         <v>-1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E14" s="22">
         <v>4</v>
@@ -7241,10 +7274,10 @@
         <v>-1</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J14" s="21">
         <v>0</v>
@@ -7334,24 +7367,24 @@
         <v>0</v>
       </c>
       <c r="AM14" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AN14" s="21" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" s="16">
         <v>-1</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E15" s="17">
         <v>5</v>
@@ -7366,7 +7399,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -7456,24 +7489,24 @@
         <v>0</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C16" s="26">
         <v>-1</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7485,10 +7518,10 @@
         <v>-1</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J16" s="26">
         <v>0</v>
@@ -7578,24 +7611,24 @@
         <v>0</v>
       </c>
       <c r="AM16" s="26" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AN16" s="26" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>15</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C17" s="31">
         <v>-1</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E17" s="32">
         <v>2</v>
@@ -7607,10 +7640,10 @@
         <v>-1</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J17" s="31">
         <v>0</v>
@@ -7700,24 +7733,24 @@
         <v>0</v>
       </c>
       <c r="AM17" s="31" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN17" s="31" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C18" s="26">
         <v>-1</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E18" s="27">
         <v>2</v>
@@ -7732,7 +7765,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J18" s="26">
         <v>0</v>
@@ -7822,24 +7855,24 @@
         <v>0</v>
       </c>
       <c r="AM18" s="26" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="AN18" s="26" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>17</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C19" s="31">
         <v>-1</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E19" s="32">
         <v>3</v>
@@ -7851,10 +7884,10 @@
         <v>-1</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J19" s="31">
         <v>0</v>
@@ -7944,24 +7977,24 @@
         <v>0</v>
       </c>
       <c r="AM19" s="31" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AN19" s="31" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C20" s="26">
         <v>-1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E20" s="27">
         <v>3</v>
@@ -7973,10 +8006,10 @@
         <v>-1</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J20" s="26">
         <v>0</v>
@@ -8066,24 +8099,24 @@
         <v>0.5</v>
       </c>
       <c r="AM20" s="26" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AN20" s="26" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>19</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C21" s="31">
         <v>-1</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E21" s="32">
         <v>4</v>
@@ -8098,7 +8131,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J21" s="31">
         <v>0</v>
@@ -8188,24 +8221,24 @@
         <v>0</v>
       </c>
       <c r="AM21" s="31" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AN21" s="31" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C22" s="26">
         <v>-1</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E22" s="27">
         <v>5</v>
@@ -8220,7 +8253,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J22" s="26">
         <v>0</v>
@@ -8310,24 +8343,24 @@
         <v>0</v>
       </c>
       <c r="AM22" s="26" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN22" s="26" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57">
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C23" s="58">
         <v>-1</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E23" s="59">
         <v>1</v>
@@ -8339,10 +8372,10 @@
         <v>-1</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J23" s="58">
         <v>0</v>
@@ -8432,24 +8465,24 @@
         <v>0</v>
       </c>
       <c r="AM23" s="58" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AN23" s="58" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52">
         <v>22</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C24" s="53">
         <v>-1</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E24" s="54">
         <v>2</v>
@@ -8461,10 +8494,10 @@
         <v>-1</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J24" s="53">
         <v>0</v>
@@ -8554,24 +8587,24 @@
         <v>0</v>
       </c>
       <c r="AM24" s="53" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="AN24" s="53" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57">
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C25" s="58">
         <v>-1</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E25" s="59">
         <v>2</v>
@@ -8586,7 +8619,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J25" s="58">
         <v>0</v>
@@ -8676,24 +8709,24 @@
         <v>0</v>
       </c>
       <c r="AM25" s="58" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AN25" s="58" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52">
         <v>24</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C26" s="53">
         <v>-1</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E26" s="54">
         <v>3</v>
@@ -8708,7 +8741,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J26" s="53">
         <v>0</v>
@@ -8798,24 +8831,24 @@
         <v>0</v>
       </c>
       <c r="AM26" s="53" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="AN26" s="53" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C27" s="58">
         <v>-1</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E27" s="59">
         <v>3</v>
@@ -8827,10 +8860,10 @@
         <v>-1</v>
       </c>
       <c r="H27" s="58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J27" s="58">
         <v>0</v>
@@ -8920,24 +8953,24 @@
         <v>0</v>
       </c>
       <c r="AM27" s="58" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="AN27" s="58" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52">
         <v>26</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C28" s="53">
         <v>-1</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E28" s="54">
         <v>4</v>
@@ -8952,7 +8985,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J28" s="53">
         <v>0</v>
@@ -9042,24 +9075,24 @@
         <v>0</v>
       </c>
       <c r="AM28" s="53" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AN28" s="53" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57">
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C29" s="58">
         <v>-1</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E29" s="59">
         <v>5</v>
@@ -9071,10 +9104,10 @@
         <v>-1</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J29" s="58">
         <v>100</v>
@@ -9164,24 +9197,24 @@
         <v>0</v>
       </c>
       <c r="AM29" s="58" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AN29" s="58" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63">
         <v>28</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C30" s="64">
         <v>-1</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="E30" s="65">
         <v>1</v>
@@ -9196,7 +9229,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J30" s="64">
         <v>0</v>
@@ -9286,24 +9319,24 @@
         <v>0</v>
       </c>
       <c r="AM30" s="64" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="AN30" s="64" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="69">
         <v>29</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C31" s="69">
         <v>-1</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="E31" s="69">
         <v>2</v>
@@ -9315,10 +9348,10 @@
         <v>-1</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I31" s="69" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J31" s="69">
         <v>0</v>
@@ -9408,24 +9441,24 @@
         <v>0</v>
       </c>
       <c r="AM31" s="69" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="AN31" s="69" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63">
         <v>30</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C32" s="64">
         <v>-1</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E32" s="65">
         <v>3</v>
@@ -9437,10 +9470,10 @@
         <v>-1</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J32" s="64">
         <v>0</v>
@@ -9530,24 +9563,24 @@
         <v>0</v>
       </c>
       <c r="AM32" s="64" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="AN32" s="64" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="68">
         <v>31</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C33" s="68">
         <v>-1</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E33" s="68">
         <v>3</v>
@@ -9559,10 +9592,10 @@
         <v>-1</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J33" s="68">
         <v>0</v>
@@ -9652,24 +9685,24 @@
         <v>0</v>
       </c>
       <c r="AM33" s="68" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AN33" s="68" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63">
         <v>32</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C34" s="64">
         <v>-1</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E34" s="65">
         <v>4</v>
@@ -9681,10 +9714,10 @@
         <v>-1</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J34" s="64">
         <v>0</v>
@@ -9774,24 +9807,24 @@
         <v>0</v>
       </c>
       <c r="AM34" s="64" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AN34" s="64" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68">
         <v>33</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C35" s="68">
         <v>-1</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="E35" s="68">
         <v>5</v>
@@ -9803,10 +9836,10 @@
         <v>-1</v>
       </c>
       <c r="H35" s="68" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="J35" s="68">
         <v>0</v>
@@ -9896,24 +9929,24 @@
         <v>0</v>
       </c>
       <c r="AM35" s="68" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AN35" s="68" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="70">
         <v>34</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C36" s="70">
         <v>-1</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="E36" s="70">
         <v>1</v>
@@ -9928,7 +9961,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="70" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J36" s="70">
         <v>0</v>
@@ -10018,24 +10051,24 @@
         <v>0</v>
       </c>
       <c r="AM36" s="70" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="AN36" s="70" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72">
         <v>35</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C37" s="72">
         <v>-1</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="E37" s="72">
         <v>1</v>
@@ -10050,7 +10083,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J37" s="72">
         <v>0</v>
@@ -10140,24 +10173,24 @@
         <v>0</v>
       </c>
       <c r="AM37" s="72" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="AN37" s="72" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71">
         <v>36</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C38" s="71">
         <v>-1</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E38" s="71">
         <v>2</v>
@@ -10172,7 +10205,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J38" s="71">
         <v>0</v>
@@ -10262,24 +10295,24 @@
         <v>0</v>
       </c>
       <c r="AM38" s="71" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AN38" s="71" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72">
         <v>37</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C39" s="72">
         <v>-1</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E39" s="72">
         <v>4</v>
@@ -10291,10 +10324,10 @@
         <v>-1</v>
       </c>
       <c r="H39" s="72" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J39" s="72">
         <v>0</v>
@@ -10384,24 +10417,24 @@
         <v>0</v>
       </c>
       <c r="AM39" s="72" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AN39" s="72" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71">
         <v>38</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C40" s="71">
         <v>-1</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E40" s="71">
         <v>4</v>
@@ -10416,7 +10449,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="71" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J40" s="71">
         <v>0</v>
@@ -10506,24 +10539,24 @@
         <v>0</v>
       </c>
       <c r="AM40" s="71" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="AN40" s="71" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="75">
         <v>39</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C41" s="75">
         <v>-1</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E41" s="75">
         <v>1</v>
@@ -10538,7 +10571,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J41" s="75">
         <v>0</v>
@@ -10628,24 +10661,24 @@
         <v>0</v>
       </c>
       <c r="AM41" s="75" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="AN41" s="75" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="76">
         <v>40</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C42" s="76">
         <v>-1</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="E42" s="76">
         <v>2</v>
@@ -10660,7 +10693,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J42" s="76">
         <v>0</v>
@@ -10750,24 +10783,24 @@
         <v>0</v>
       </c>
       <c r="AM42" s="76" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AN42" s="76" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="75">
         <v>41</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C43" s="75">
         <v>-1</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E43" s="75">
         <v>3</v>
@@ -10782,7 +10815,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="75" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J43" s="75">
         <v>0</v>
@@ -10872,24 +10905,24 @@
         <v>0</v>
       </c>
       <c r="AM43" s="75" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AN43" s="75" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="76">
         <v>42</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C44" s="76">
         <v>-1</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E44" s="76">
         <v>3</v>
@@ -10901,10 +10934,10 @@
         <v>-1</v>
       </c>
       <c r="H44" s="76" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I44" s="76" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J44" s="76">
         <v>0</v>
@@ -10994,24 +11027,24 @@
         <v>0</v>
       </c>
       <c r="AM44" s="76" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="AN44" s="76" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="75">
         <v>43</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C45" s="75">
         <v>-1</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E45" s="75">
         <v>4</v>
@@ -11023,10 +11056,10 @@
         <v>-1</v>
       </c>
       <c r="H45" s="75" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I45" s="75" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J45" s="75">
         <v>0</v>
@@ -11116,24 +11149,24 @@
         <v>0</v>
       </c>
       <c r="AM45" s="75" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="AN45" s="75" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="76">
         <v>44</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C46" s="76">
         <v>-1</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E46" s="76">
         <v>5</v>
@@ -11145,10 +11178,10 @@
         <v>-1</v>
       </c>
       <c r="H46" s="76" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I46" s="76" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J46" s="76">
         <v>0</v>
@@ -11238,24 +11271,24 @@
         <v>0</v>
       </c>
       <c r="AM46" s="76" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="AN46" s="76" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="73">
         <v>45</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C47" s="73">
         <v>-1</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E47" s="73">
         <v>1</v>
@@ -11267,10 +11300,10 @@
         <v>-1</v>
       </c>
       <c r="H47" s="73" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I47" s="73" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J47" s="73">
         <v>0</v>
@@ -11360,24 +11393,24 @@
         <v>0</v>
       </c>
       <c r="AM47" s="73" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="AN47" s="73" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="74">
         <v>46</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C48" s="74">
         <v>-1</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E48" s="74">
         <v>1</v>
@@ -11389,10 +11422,10 @@
         <v>-1</v>
       </c>
       <c r="H48" s="74" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I48" s="74" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J48" s="74">
         <v>0</v>
@@ -11482,24 +11515,24 @@
         <v>0</v>
       </c>
       <c r="AM48" s="74" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="AN48" s="74" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73">
         <v>47</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C49" s="73">
         <v>-1</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E49" s="73">
         <v>2</v>
@@ -11511,10 +11544,10 @@
         <v>-1</v>
       </c>
       <c r="H49" s="73" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I49" s="73" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J49" s="73">
         <v>0</v>
@@ -11604,24 +11637,24 @@
         <v>0</v>
       </c>
       <c r="AM49" s="73" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="AN49" s="73" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="74">
         <v>48</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C50" s="74">
         <v>-1</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E50" s="74">
         <v>3</v>
@@ -11636,7 +11669,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="74" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J50" s="74">
         <v>0</v>
@@ -11726,24 +11759,24 @@
         <v>0</v>
       </c>
       <c r="AM50" s="74" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="AN50" s="74" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="73">
         <v>49</v>
       </c>
       <c r="B51" s="73" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C51" s="73">
         <v>-1</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E51" s="73">
         <v>4</v>
@@ -11755,10 +11788,10 @@
         <v>-1</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I51" s="73" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J51" s="73">
         <v>0</v>
@@ -11848,13 +11881,13 @@
         <v>0</v>
       </c>
       <c r="AM51" s="73" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="AN51" s="73" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="35"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -11886,7 +11919,7 @@
       <c r="AK52" s="36"/>
       <c r="AL52" s="38"/>
     </row>
-    <row r="53" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -11918,7 +11951,7 @@
       <c r="AK53" s="36"/>
       <c r="AL53" s="38"/>
     </row>
-    <row r="54" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -11950,7 +11983,7 @@
       <c r="AK54" s="36"/>
       <c r="AL54" s="38"/>
     </row>
-    <row r="55" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -11982,7 +12015,7 @@
       <c r="AK55" s="36"/>
       <c r="AL55" s="38"/>
     </row>
-    <row r="56" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -12014,7 +12047,7 @@
       <c r="AK56" s="36"/>
       <c r="AL56" s="38"/>
     </row>
-    <row r="57" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -12046,7 +12079,7 @@
       <c r="AK57" s="36"/>
       <c r="AL57" s="38"/>
     </row>
-    <row r="58" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -12078,7 +12111,7 @@
       <c r="AK58" s="36"/>
       <c r="AL58" s="38"/>
     </row>
-    <row r="59" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -12110,7 +12143,7 @@
       <c r="AK59" s="36"/>
       <c r="AL59" s="38"/>
     </row>
-    <row r="60" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -12142,7 +12175,7 @@
       <c r="AK60" s="36"/>
       <c r="AL60" s="38"/>
     </row>
-    <row r="61" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -12174,7 +12207,7 @@
       <c r="AK61" s="36"/>
       <c r="AL61" s="38"/>
     </row>
-    <row r="62" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -12206,7 +12239,7 @@
       <c r="AK62" s="36"/>
       <c r="AL62" s="38"/>
     </row>
-    <row r="63" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -12238,7 +12271,7 @@
       <c r="AK63" s="36"/>
       <c r="AL63" s="38"/>
     </row>
-    <row r="64" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -12270,7 +12303,7 @@
       <c r="AK64" s="36"/>
       <c r="AL64" s="38"/>
     </row>
-    <row r="65" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
@@ -12302,7 +12335,7 @@
       <c r="AK65" s="36"/>
       <c r="AL65" s="38"/>
     </row>
-    <row r="66" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
@@ -12334,7 +12367,7 @@
       <c r="AK66" s="36"/>
       <c r="AL66" s="38"/>
     </row>
-    <row r="67" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
@@ -12366,7 +12399,7 @@
       <c r="AK67" s="36"/>
       <c r="AL67" s="38"/>
     </row>
-    <row r="68" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
@@ -12398,7 +12431,7 @@
       <c r="AK68" s="36"/>
       <c r="AL68" s="38"/>
     </row>
-    <row r="69" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
@@ -12430,7 +12463,7 @@
       <c r="AK69" s="36"/>
       <c r="AL69" s="38"/>
     </row>
-    <row r="70" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -12462,7 +12495,7 @@
       <c r="AK70" s="36"/>
       <c r="AL70" s="38"/>
     </row>
-    <row r="71" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -12494,7 +12527,7 @@
       <c r="AK71" s="36"/>
       <c r="AL71" s="38"/>
     </row>
-    <row r="72" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -12526,7 +12559,7 @@
       <c r="AK72" s="36"/>
       <c r="AL72" s="38"/>
     </row>
-    <row r="73" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -12558,7 +12591,7 @@
       <c r="AK73" s="36"/>
       <c r="AL73" s="38"/>
     </row>
-    <row r="74" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -12590,7 +12623,7 @@
       <c r="AK74" s="36"/>
       <c r="AL74" s="38"/>
     </row>
-    <row r="75" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -12622,7 +12655,7 @@
       <c r="AK75" s="36"/>
       <c r="AL75" s="38"/>
     </row>
-    <row r="76" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -12654,7 +12687,7 @@
       <c r="AK76" s="36"/>
       <c r="AL76" s="38"/>
     </row>
-    <row r="77" spans="1:40" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A7DB6-0B90-4B4A-9086-6F90B948A068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9204FA-DE4A-4188-8BF9-37EFF0E90FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="260">
   <si>
     <t>weapon_name</t>
   </si>
@@ -394,9 +394,6 @@
     <t>MAX_POISON</t>
   </si>
   <si>
-    <t>NAT_GROW</t>
-  </si>
-  <si>
     <t>DIV_STR</t>
   </si>
   <si>
@@ -629,39 +626,6 @@
   </si>
   <si>
     <t>res://src/main/scene/role/standard_weapons/weapon_49/weapon_49.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_43/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_39/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_40/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_41/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_42/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_44/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_45/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_46/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_47/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_48/icon.png</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/standard_weapons/weapon_49/icon.png</t>
   </si>
   <si>
     <t>FROST/DEMON</t>
@@ -1445,7 +1409,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1529,39 +1493,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -5319,44 +5250,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}" name="表2" displayName="表2" ref="A1:AL77" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:AL77" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}"/>
-  <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{3799E386-948D-4F00-B827-99F2EC0CADAF}" name="weapon_id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{E7EC2432-526D-42DA-9967-ADCC67D0D963}" name="weapon_name" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{0F8DAFFC-7E9B-489B-9946-3E70FEDCF9B9}" name="icon" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{62CF3CC9-3BDA-41DF-BBBF-9A9DC5CF5D38}" name="detail" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{4CB79038-58FA-4A6D-8E76-3A367AED3817}" name="star_rating" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{8927CA07-5E25-43D5-AC54-2432F368AAD4}" name="price" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{78D5B758-D9B4-4DDD-B04E-B2ACA8854564}" name="max_quantity" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{47B2F857-5351-4448-A812-FE2D94F2F3FA}" name="types" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{AD446C8D-C515-4BD5-ACA7-5FE10827C8CE}" name="elements" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{4D5B2612-372E-45E3-A175-DB0F068AD228}" name="MAX_HP" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{2898CDF2-8D76-4B48-A443-AEA62CFD250C}" name="HP_REGEN" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{B8ADB5DE-118A-4B2D-9589-A1038F566A97}" name="LIFE_STEAL" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{265AF2FC-D072-4BB9-9C90-6C94C39F35E7}" name="PHY_ATK" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{66FC9F8E-699C-4806-8D11-1A7A04343EF8}" name="MAG_ATK" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{CDBAE5C6-06A2-402D-9B1E-A2462F122EA9}" name="CRIT_RATE" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{6F53DAB9-40C3-4095-A2F7-DDBBC38A35FA}" name="CRIT_DMG" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{305C7683-DDA4-4836-9D85-811138240927}" name="KNOCKBACK" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{56D38059-B42E-46BD-8761-A58E28F9561F}" name="SEARCH_RAD" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{199FA71C-79DC-4A88-B3A3-768D06416074}" name="SPAWN_SIZE" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{37FF1CF8-9C13-4CA6-8CC5-91545422452D}" name="WEAPON_SIZE" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{99DF8C3B-8FE2-4B2E-9E79-75CD213849D7}" name="PROJ_COUNT" dataDxfId="22"/>
-    <tableColumn id="24" xr3:uid="{53495D90-0508-4351-8805-24EB632E137B}" name="FLY_SPD" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{4DD61C33-2204-42E1-A602-63E2FEFBD054}" name="ROT_SPD" dataDxfId="20"/>
-    <tableColumn id="26" xr3:uid="{A2B9BE8D-663F-49BA-8874-91A31BBAF2FE}" name="PEN_RATE" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{64A72190-2BAE-4CF1-ACDE-B989FBC70FA5}" name="ATK_CD" dataDxfId="18"/>
-    <tableColumn id="28" xr3:uid="{BE83D09A-ED7F-4DE4-AEB7-0BE072111907}" name="EFF_DUR" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{65D5BFEA-2563-4840-A311-C70B41F62770}" name="DECEL_DUR" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{6C2C10CB-92E3-43AB-9616-CACADD75802A}" name="SLOW_RATE" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{7C8E3DC3-0925-43C8-8A32-F9D3DE931C4D}" name="FREEZE_RATE" dataDxfId="14"/>
-    <tableColumn id="33" xr3:uid="{CBAFAC74-2EAB-4BA4-B365-094617C5E55B}" name="LCH_DMG" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{A17D1816-87E4-4D41-B6F6-F6902B968918}" name="LCH_COUNT" dataDxfId="12"/>
-    <tableColumn id="35" xr3:uid="{751E6DA3-3743-42CC-89E3-5EF0E8BE4E84}" name="POISON_LAY" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{8E4D91E4-74F0-42EB-A74B-9CE85A16CF7D}" name="MAX_POISON" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{24B11305-D783-4C8F-90CF-76AE324CFDB2}" name="POISON_DAMAGE" dataDxfId="9"/>
-    <tableColumn id="37" xr3:uid="{E035CCBD-1773-4D08-95C9-44920EC8EACB}" name="NAT_GROW" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}" name="表2" displayName="表2" ref="A1:AK77" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A1:AK77" xr:uid="{0E00F9F4-1DA6-4216-B671-44F6F0E238D5}"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{3799E386-948D-4F00-B827-99F2EC0CADAF}" name="weapon_id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{E7EC2432-526D-42DA-9967-ADCC67D0D963}" name="weapon_name" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{0F8DAFFC-7E9B-489B-9946-3E70FEDCF9B9}" name="icon" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{62CF3CC9-3BDA-41DF-BBBF-9A9DC5CF5D38}" name="detail" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{4CB79038-58FA-4A6D-8E76-3A367AED3817}" name="star_rating" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8927CA07-5E25-43D5-AC54-2432F368AAD4}" name="price" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{78D5B758-D9B4-4DDD-B04E-B2ACA8854564}" name="max_quantity" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{47B2F857-5351-4448-A812-FE2D94F2F3FA}" name="types" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{AD446C8D-C515-4BD5-ACA7-5FE10827C8CE}" name="elements" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{4D5B2612-372E-45E3-A175-DB0F068AD228}" name="MAX_HP" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{2898CDF2-8D76-4B48-A443-AEA62CFD250C}" name="HP_REGEN" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{B8ADB5DE-118A-4B2D-9589-A1038F566A97}" name="LIFE_STEAL" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{265AF2FC-D072-4BB9-9C90-6C94C39F35E7}" name="PHY_ATK" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{66FC9F8E-699C-4806-8D11-1A7A04343EF8}" name="MAG_ATK" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{CDBAE5C6-06A2-402D-9B1E-A2462F122EA9}" name="CRIT_RATE" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{6F53DAB9-40C3-4095-A2F7-DDBBC38A35FA}" name="CRIT_DMG" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{305C7683-DDA4-4836-9D85-811138240927}" name="KNOCKBACK" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{56D38059-B42E-46BD-8761-A58E28F9561F}" name="SEARCH_RAD" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{199FA71C-79DC-4A88-B3A3-768D06416074}" name="SPAWN_SIZE" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{37FF1CF8-9C13-4CA6-8CC5-91545422452D}" name="WEAPON_SIZE" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{99DF8C3B-8FE2-4B2E-9E79-75CD213849D7}" name="PROJ_COUNT" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{53495D90-0508-4351-8805-24EB632E137B}" name="FLY_SPD" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{4DD61C33-2204-42E1-A602-63E2FEFBD054}" name="ROT_SPD" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{A2B9BE8D-663F-49BA-8874-91A31BBAF2FE}" name="PEN_RATE" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{64A72190-2BAE-4CF1-ACDE-B989FBC70FA5}" name="ATK_CD" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{BE83D09A-ED7F-4DE4-AEB7-0BE072111907}" name="EFF_DUR" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{65D5BFEA-2563-4840-A311-C70B41F62770}" name="DECEL_DUR" dataDxfId="15"/>
+    <tableColumn id="31" xr3:uid="{6C2C10CB-92E3-43AB-9616-CACADD75802A}" name="SLOW_RATE" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{7C8E3DC3-0925-43C8-8A32-F9D3DE931C4D}" name="FREEZE_RATE" dataDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{CBAFAC74-2EAB-4BA4-B365-094617C5E55B}" name="LCH_DMG" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{A17D1816-87E4-4D41-B6F6-F6902B968918}" name="LCH_COUNT" dataDxfId="11"/>
+    <tableColumn id="35" xr3:uid="{751E6DA3-3743-42CC-89E3-5EF0E8BE4E84}" name="POISON_LAY" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{8E4D91E4-74F0-42EB-A74B-9CE85A16CF7D}" name="MAX_POISON" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{24B11305-D783-4C8F-90CF-76AE324CFDB2}" name="POISON_DAMAGE" dataDxfId="8"/>
     <tableColumn id="38" xr3:uid="{6450A074-7E7E-4569-B875-F6EDFD2776BF}" name="DIV_STR" dataDxfId="7"/>
     <tableColumn id="39" xr3:uid="{C0C7B4E8-7D45-48BF-885E-A9BB8F8CADE1}" name="PICK_AXE" dataDxfId="6"/>
     <tableColumn id="40" xr3:uid="{8C926E07-1639-4F8D-8FCB-ED5C398A0900}" name="SCROLL_CD_REDUC" dataDxfId="5"/>
@@ -5643,11 +5573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN51" sqref="AN51"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5660,12 +5590,12 @@
     <col min="6" max="6" width="11.125" style="36" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="36" customWidth="1"/>
     <col min="8" max="9" width="20.625" style="36" customWidth="1"/>
-    <col min="10" max="38" width="16.625" style="39" customWidth="1"/>
-    <col min="39" max="40" width="100.625" style="36" customWidth="1"/>
-    <col min="41" max="16384" width="16.625" style="39"/>
+    <col min="10" max="37" width="16.625" style="39" customWidth="1"/>
+    <col min="38" max="39" width="100.625" style="36" customWidth="1"/>
+    <col min="40" max="16384" width="16.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5688,10 +5618,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>101</v>
@@ -5760,34 +5690,31 @@
         <v>122</v>
       </c>
       <c r="AF1" s="86" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AG1" s="49" t="s">
         <v>123</v>
       </c>
       <c r="AH1" s="49" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AI1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="49" t="s">
+      <c r="AJ1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="50" t="s">
+      <c r="AK1" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="51" t="s">
-        <v>127</v>
+      <c r="AL1" s="62" t="s">
+        <v>1</v>
       </c>
       <c r="AM1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -5798,7 +5725,7 @@
         <v>-1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -5896,20 +5823,17 @@
       <c r="AJ2" s="6">
         <v>0</v>
       </c>
-      <c r="AK2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>0</v>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -6018,20 +5942,17 @@
       <c r="AJ3" s="11">
         <v>0</v>
       </c>
-      <c r="AK3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>0</v>
+      <c r="AK3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6140,20 +6061,17 @@
       <c r="AJ4" s="6">
         <v>0</v>
       </c>
-      <c r="AK4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>0</v>
+      <c r="AK4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6164,7 +6082,7 @@
         <v>-1</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -6262,20 +6180,17 @@
       <c r="AJ5" s="11">
         <v>0</v>
       </c>
-      <c r="AK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="13">
-        <v>0</v>
+      <c r="AK5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -6384,20 +6299,17 @@
       <c r="AJ6" s="6">
         <v>0</v>
       </c>
-      <c r="AK6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>0</v>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6506,20 +6418,17 @@
       <c r="AJ7" s="11">
         <v>0</v>
       </c>
-      <c r="AK7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="13">
-        <v>0</v>
+      <c r="AK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -6628,20 +6537,17 @@
       <c r="AJ8" s="6">
         <v>0</v>
       </c>
-      <c r="AK8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>0</v>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -6750,20 +6656,17 @@
       <c r="AJ9" s="16">
         <v>0</v>
       </c>
-      <c r="AK9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="18">
-        <v>0</v>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6872,20 +6775,17 @@
       <c r="AJ10" s="21">
         <v>0</v>
       </c>
-      <c r="AK10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="23">
-        <v>0</v>
+      <c r="AK10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN10" s="21" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -6896,7 +6796,7 @@
         <v>-1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="17">
         <v>2</v>
@@ -6994,20 +6894,17 @@
       <c r="AJ11" s="16">
         <v>0</v>
       </c>
-      <c r="AK11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="18">
-        <v>0</v>
+      <c r="AK11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="AM11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="16" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -7116,20 +7013,17 @@
       <c r="AJ12" s="21">
         <v>0</v>
       </c>
-      <c r="AK12" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="23">
-        <v>0</v>
+      <c r="AK12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="AM12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="21" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -7238,20 +7132,17 @@
       <c r="AJ13" s="16">
         <v>0</v>
       </c>
-      <c r="AK13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="18">
-        <v>0</v>
+      <c r="AK13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="AM13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN13" s="16" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -7360,20 +7251,17 @@
       <c r="AJ14" s="21">
         <v>0</v>
       </c>
-      <c r="AK14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="23">
-        <v>0</v>
+      <c r="AK14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="AM14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN14" s="21" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="19" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -7399,7 +7287,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -7482,20 +7370,17 @@
       <c r="AJ15" s="16">
         <v>0</v>
       </c>
-      <c r="AK15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="18">
-        <v>0</v>
+      <c r="AK15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN15" s="16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -7604,20 +7489,17 @@
       <c r="AJ16" s="26">
         <v>0</v>
       </c>
-      <c r="AK16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="28">
-        <v>0</v>
+      <c r="AK16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="AM16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN16" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>15</v>
       </c>
@@ -7726,20 +7608,17 @@
       <c r="AJ17" s="31">
         <v>0</v>
       </c>
-      <c r="AK17" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="33">
-        <v>0</v>
+      <c r="AK17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="AM17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN17" s="31" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>16</v>
       </c>
@@ -7848,20 +7727,17 @@
       <c r="AJ18" s="26">
         <v>0</v>
       </c>
-      <c r="AK18" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="28">
-        <v>0</v>
+      <c r="AK18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="AM18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN18" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>17</v>
       </c>
@@ -7970,20 +7846,17 @@
       <c r="AJ19" s="31">
         <v>0</v>
       </c>
-      <c r="AK19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="33">
-        <v>0</v>
+      <c r="AK19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="AM19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN19" s="31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>18</v>
       </c>
@@ -8092,20 +7965,17 @@
       <c r="AJ20" s="26">
         <v>0</v>
       </c>
-      <c r="AK20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="28">
+      <c r="AK20" s="28">
         <v>0.5</v>
       </c>
+      <c r="AL20" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="AM20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN20" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="34" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>19</v>
       </c>
@@ -8214,25 +8084,22 @@
       <c r="AJ21" s="31">
         <v>0</v>
       </c>
-      <c r="AK21" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="33">
-        <v>0</v>
+      <c r="AK21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="AM21" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN21" s="31" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C22" s="26">
         <v>-1</v>
@@ -8336,20 +8203,17 @@
       <c r="AJ22" s="26">
         <v>0</v>
       </c>
-      <c r="AK22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="28">
-        <v>0</v>
+      <c r="AK22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="AM22" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN22" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57">
         <v>21</v>
       </c>
@@ -8458,20 +8322,17 @@
       <c r="AJ23" s="58">
         <v>0</v>
       </c>
-      <c r="AK23" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="60">
-        <v>0</v>
+      <c r="AK23" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="58" t="s">
+        <v>86</v>
       </c>
       <c r="AM23" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN23" s="58" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52">
         <v>22</v>
       </c>
@@ -8580,25 +8441,22 @@
       <c r="AJ24" s="53">
         <v>0</v>
       </c>
-      <c r="AK24" s="53">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="55">
-        <v>0</v>
+      <c r="AK24" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="AM24" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN24" s="53" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57">
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="58">
         <v>-1</v>
@@ -8702,20 +8560,17 @@
       <c r="AJ25" s="58">
         <v>0</v>
       </c>
-      <c r="AK25" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="60">
-        <v>0</v>
+      <c r="AK25" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="AM25" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN25" s="58" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52">
         <v>24</v>
       </c>
@@ -8824,20 +8679,17 @@
       <c r="AJ26" s="53">
         <v>0</v>
       </c>
-      <c r="AK26" s="53">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="55">
-        <v>0</v>
+      <c r="AK26" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="AM26" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN26" s="53" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>25</v>
       </c>
@@ -8848,7 +8700,7 @@
         <v>-1</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="59">
         <v>3</v>
@@ -8946,20 +8798,17 @@
       <c r="AJ27" s="58">
         <v>0</v>
       </c>
-      <c r="AK27" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="60">
-        <v>0</v>
+      <c r="AK27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="58" t="s">
+        <v>90</v>
       </c>
       <c r="AM27" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN27" s="58" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="56" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52">
         <v>26</v>
       </c>
@@ -8970,7 +8819,7 @@
         <v>-1</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="54">
         <v>4</v>
@@ -9068,20 +8917,17 @@
       <c r="AJ28" s="53">
         <v>0</v>
       </c>
-      <c r="AK28" s="53">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="55">
-        <v>0</v>
+      <c r="AK28" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="AM28" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN28" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="61" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57">
         <v>27</v>
       </c>
@@ -9190,31 +9036,28 @@
       <c r="AJ29" s="58">
         <v>0</v>
       </c>
-      <c r="AK29" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="60">
-        <v>0</v>
+      <c r="AK29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="58" t="s">
+        <v>92</v>
       </c>
       <c r="AM29" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN29" s="58" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63">
         <v>28</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="64">
         <v>-1</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="65">
         <v>1</v>
@@ -9229,7 +9072,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="64">
         <v>0</v>
@@ -9312,31 +9155,28 @@
       <c r="AJ30" s="64">
         <v>0</v>
       </c>
-      <c r="AK30" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="66">
-        <v>0</v>
+      <c r="AK30" s="66">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="64" t="s">
+        <v>180</v>
       </c>
       <c r="AM30" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN30" s="64" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="69" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="69">
         <v>29</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="69">
         <v>-1</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="69">
         <v>2</v>
@@ -9351,7 +9191,7 @@
         <v>45</v>
       </c>
       <c r="I31" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J31" s="69">
         <v>0</v>
@@ -9437,28 +9277,25 @@
       <c r="AK31" s="69">
         <v>0</v>
       </c>
-      <c r="AL31" s="69">
-        <v>0</v>
+      <c r="AL31" s="69" t="s">
+        <v>181</v>
       </c>
       <c r="AM31" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN31" s="69" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63">
         <v>30</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C32" s="64">
         <v>-1</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="65">
         <v>3</v>
@@ -9473,7 +9310,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J32" s="64">
         <v>0</v>
@@ -9556,31 +9393,28 @@
       <c r="AJ32" s="64">
         <v>0</v>
       </c>
-      <c r="AK32" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="66">
-        <v>0</v>
+      <c r="AK32" s="66">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="64" t="s">
+        <v>182</v>
       </c>
       <c r="AM32" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN32" s="64" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="68">
         <v>31</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="68">
         <v>-1</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="68">
         <v>3</v>
@@ -9595,7 +9429,7 @@
         <v>44</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J33" s="68">
         <v>0</v>
@@ -9681,28 +9515,25 @@
       <c r="AK33" s="68">
         <v>0</v>
       </c>
-      <c r="AL33" s="68">
-        <v>0</v>
+      <c r="AL33" s="68" t="s">
+        <v>183</v>
       </c>
       <c r="AM33" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN33" s="68" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63">
         <v>32</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="64">
         <v>-1</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="65">
         <v>4</v>
@@ -9717,7 +9548,7 @@
         <v>47</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J34" s="64">
         <v>0</v>
@@ -9800,31 +9631,28 @@
       <c r="AJ34" s="64">
         <v>0</v>
       </c>
-      <c r="AK34" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="66">
-        <v>0</v>
+      <c r="AK34" s="66">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="64" t="s">
+        <v>184</v>
       </c>
       <c r="AM34" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN34" s="64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" s="68" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68">
         <v>33</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="68">
         <v>-1</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E35" s="68">
         <v>5</v>
@@ -9839,7 +9667,7 @@
         <v>43</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J35" s="68">
         <v>0</v>
@@ -9925,28 +9753,25 @@
       <c r="AK35" s="68">
         <v>0</v>
       </c>
-      <c r="AL35" s="68">
-        <v>0</v>
+      <c r="AL35" s="68" t="s">
+        <v>185</v>
       </c>
       <c r="AM35" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN35" s="68" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" s="70" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="70">
         <v>34</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="70">
         <v>-1</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="70">
         <v>1</v>
@@ -9961,7 +9786,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="70">
         <v>0</v>
@@ -10047,28 +9872,25 @@
       <c r="AK36" s="70">
         <v>0</v>
       </c>
-      <c r="AL36" s="70">
-        <v>0</v>
+      <c r="AL36" s="70" t="s">
+        <v>186</v>
       </c>
       <c r="AM36" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN36" s="70" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72">
         <v>35</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="72">
         <v>-1</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="72">
         <v>1</v>
@@ -10083,7 +9905,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="72">
         <v>0</v>
@@ -10169,28 +9991,25 @@
       <c r="AK37" s="72">
         <v>0</v>
       </c>
-      <c r="AL37" s="72">
-        <v>0</v>
+      <c r="AL37" s="72" t="s">
+        <v>187</v>
       </c>
       <c r="AM37" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN37" s="72" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71">
         <v>36</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="71">
         <v>-1</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="71">
         <v>2</v>
@@ -10205,7 +10024,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" s="71">
         <v>0</v>
@@ -10291,28 +10110,25 @@
       <c r="AK38" s="71">
         <v>0</v>
       </c>
-      <c r="AL38" s="71">
-        <v>0</v>
+      <c r="AL38" s="71" t="s">
+        <v>188</v>
       </c>
       <c r="AM38" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN38" s="71" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="72" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72">
         <v>37</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="72">
         <v>-1</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="72">
         <v>4</v>
@@ -10327,7 +10143,7 @@
         <v>43</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J39" s="72">
         <v>0</v>
@@ -10413,28 +10229,25 @@
       <c r="AK39" s="72">
         <v>0</v>
       </c>
-      <c r="AL39" s="72">
-        <v>0</v>
+      <c r="AL39" s="72" t="s">
+        <v>189</v>
       </c>
       <c r="AM39" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN39" s="72" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="71" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71">
         <v>38</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="71">
         <v>-1</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="71">
         <v>4</v>
@@ -10449,7 +10262,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J40" s="71">
         <v>0</v>
@@ -10535,28 +10348,25 @@
       <c r="AK40" s="71">
         <v>0</v>
       </c>
-      <c r="AL40" s="71">
-        <v>0</v>
+      <c r="AL40" s="71" t="s">
+        <v>190</v>
       </c>
       <c r="AM40" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN40" s="71" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="75">
         <v>39</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="75">
         <v>-1</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E41" s="75">
         <v>1</v>
@@ -10571,7 +10381,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J41" s="75">
         <v>0</v>
@@ -10657,28 +10467,25 @@
       <c r="AK41" s="75">
         <v>0</v>
       </c>
-      <c r="AL41" s="75">
-        <v>0</v>
+      <c r="AL41" s="75" t="s">
+        <v>191</v>
       </c>
       <c r="AM41" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN41" s="75" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="76">
         <v>40</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="76">
         <v>-1</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E42" s="76">
         <v>2</v>
@@ -10693,7 +10500,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J42" s="76">
         <v>0</v>
@@ -10779,28 +10586,25 @@
       <c r="AK42" s="76">
         <v>0</v>
       </c>
-      <c r="AL42" s="76">
-        <v>0</v>
+      <c r="AL42" s="76" t="s">
+        <v>192</v>
       </c>
       <c r="AM42" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN42" s="76" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="75">
         <v>41</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="75">
         <v>-1</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E43" s="75">
         <v>3</v>
@@ -10815,7 +10619,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J43" s="75">
         <v>0</v>
@@ -10901,28 +10705,25 @@
       <c r="AK43" s="75">
         <v>0</v>
       </c>
-      <c r="AL43" s="75">
-        <v>0</v>
+      <c r="AL43" s="75" t="s">
+        <v>193</v>
       </c>
       <c r="AM43" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN43" s="75" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="76">
         <v>42</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="76">
         <v>-1</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="76">
         <v>3</v>
@@ -10937,7 +10738,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J44" s="76">
         <v>0</v>
@@ -11023,28 +10824,25 @@
       <c r="AK44" s="76">
         <v>0</v>
       </c>
-      <c r="AL44" s="76">
-        <v>0</v>
+      <c r="AL44" s="76" t="s">
+        <v>194</v>
       </c>
       <c r="AM44" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN44" s="76" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="75" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="75">
         <v>43</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="75">
         <v>-1</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45" s="75">
         <v>4</v>
@@ -11059,7 +10857,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="75">
         <v>0</v>
@@ -11145,28 +10943,25 @@
       <c r="AK45" s="75">
         <v>0</v>
       </c>
-      <c r="AL45" s="75">
-        <v>0</v>
+      <c r="AL45" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="AM45" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN45" s="75" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="76">
         <v>44</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="76">
         <v>-1</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="76">
         <v>5</v>
@@ -11178,10 +10973,10 @@
         <v>-1</v>
       </c>
       <c r="H46" s="76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I46" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J46" s="76">
         <v>0</v>
@@ -11267,28 +11062,25 @@
       <c r="AK46" s="76">
         <v>0</v>
       </c>
-      <c r="AL46" s="76">
-        <v>0</v>
+      <c r="AL46" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="AM46" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN46" s="76" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="73">
         <v>45</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="73">
         <v>-1</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="73">
         <v>1</v>
@@ -11303,7 +11095,7 @@
         <v>45</v>
       </c>
       <c r="I47" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J47" s="73">
         <v>0</v>
@@ -11389,28 +11181,25 @@
       <c r="AK47" s="73">
         <v>0</v>
       </c>
-      <c r="AL47" s="73">
-        <v>0</v>
+      <c r="AL47" s="73" t="s">
+        <v>197</v>
       </c>
       <c r="AM47" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN47" s="73" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="74">
         <v>46</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="74">
         <v>-1</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="74">
         <v>1</v>
@@ -11425,7 +11214,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J48" s="74">
         <v>0</v>
@@ -11511,28 +11300,25 @@
       <c r="AK48" s="74">
         <v>0</v>
       </c>
-      <c r="AL48" s="74">
-        <v>0</v>
+      <c r="AL48" s="74" t="s">
+        <v>198</v>
       </c>
       <c r="AM48" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN48" s="74" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73">
         <v>47</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="73">
         <v>-1</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="73">
         <v>2</v>
@@ -11547,7 +11333,7 @@
         <v>47</v>
       </c>
       <c r="I49" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J49" s="73">
         <v>0</v>
@@ -11633,28 +11419,25 @@
       <c r="AK49" s="73">
         <v>0</v>
       </c>
-      <c r="AL49" s="73">
-        <v>0</v>
+      <c r="AL49" s="73" t="s">
+        <v>199</v>
       </c>
       <c r="AM49" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN49" s="73" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="74" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="74">
         <v>48</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="74">
         <v>-1</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50" s="74">
         <v>3</v>
@@ -11669,7 +11452,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J50" s="74">
         <v>0</v>
@@ -11755,28 +11538,25 @@
       <c r="AK50" s="74">
         <v>0</v>
       </c>
-      <c r="AL50" s="74">
-        <v>0</v>
+      <c r="AL50" s="74" t="s">
+        <v>200</v>
       </c>
       <c r="AM50" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN50" s="74" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="73" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="73">
         <v>49</v>
       </c>
       <c r="B51" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="73">
         <v>-1</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="73">
         <v>4</v>
@@ -11791,7 +11571,7 @@
         <v>45</v>
       </c>
       <c r="I51" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J51" s="73">
         <v>0</v>
@@ -11877,17 +11657,14 @@
       <c r="AK51" s="73">
         <v>0</v>
       </c>
-      <c r="AL51" s="73">
-        <v>0</v>
+      <c r="AL51" s="73" t="s">
+        <v>201</v>
       </c>
       <c r="AM51" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN51" s="73" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="35"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -11916,10 +11693,9 @@
       <c r="AH52" s="36"/>
       <c r="AI52" s="36"/>
       <c r="AJ52" s="36"/>
-      <c r="AK52" s="36"/>
-      <c r="AL52" s="38"/>
+      <c r="AK52" s="38"/>
     </row>
-    <row r="53" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -11948,10 +11724,9 @@
       <c r="AH53" s="36"/>
       <c r="AI53" s="36"/>
       <c r="AJ53" s="36"/>
-      <c r="AK53" s="36"/>
-      <c r="AL53" s="38"/>
+      <c r="AK53" s="38"/>
     </row>
-    <row r="54" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -11980,10 +11755,9 @@
       <c r="AH54" s="36"/>
       <c r="AI54" s="36"/>
       <c r="AJ54" s="36"/>
-      <c r="AK54" s="36"/>
-      <c r="AL54" s="38"/>
+      <c r="AK54" s="38"/>
     </row>
-    <row r="55" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -12012,10 +11786,9 @@
       <c r="AH55" s="36"/>
       <c r="AI55" s="36"/>
       <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="38"/>
+      <c r="AK55" s="38"/>
     </row>
-    <row r="56" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -12044,10 +11817,9 @@
       <c r="AH56" s="36"/>
       <c r="AI56" s="36"/>
       <c r="AJ56" s="36"/>
-      <c r="AK56" s="36"/>
-      <c r="AL56" s="38"/>
+      <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -12076,10 +11848,9 @@
       <c r="AH57" s="36"/>
       <c r="AI57" s="36"/>
       <c r="AJ57" s="36"/>
-      <c r="AK57" s="36"/>
-      <c r="AL57" s="38"/>
+      <c r="AK57" s="38"/>
     </row>
-    <row r="58" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -12108,10 +11879,9 @@
       <c r="AH58" s="36"/>
       <c r="AI58" s="36"/>
       <c r="AJ58" s="36"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="38"/>
+      <c r="AK58" s="38"/>
     </row>
-    <row r="59" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -12140,10 +11910,9 @@
       <c r="AH59" s="36"/>
       <c r="AI59" s="36"/>
       <c r="AJ59" s="36"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="38"/>
+      <c r="AK59" s="38"/>
     </row>
-    <row r="60" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -12172,10 +11941,9 @@
       <c r="AH60" s="36"/>
       <c r="AI60" s="36"/>
       <c r="AJ60" s="36"/>
-      <c r="AK60" s="36"/>
-      <c r="AL60" s="38"/>
+      <c r="AK60" s="38"/>
     </row>
-    <row r="61" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -12204,10 +11972,9 @@
       <c r="AH61" s="36"/>
       <c r="AI61" s="36"/>
       <c r="AJ61" s="36"/>
-      <c r="AK61" s="36"/>
-      <c r="AL61" s="38"/>
+      <c r="AK61" s="38"/>
     </row>
-    <row r="62" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -12236,10 +12003,9 @@
       <c r="AH62" s="36"/>
       <c r="AI62" s="36"/>
       <c r="AJ62" s="36"/>
-      <c r="AK62" s="36"/>
-      <c r="AL62" s="38"/>
+      <c r="AK62" s="38"/>
     </row>
-    <row r="63" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -12268,10 +12034,9 @@
       <c r="AH63" s="36"/>
       <c r="AI63" s="36"/>
       <c r="AJ63" s="36"/>
-      <c r="AK63" s="36"/>
-      <c r="AL63" s="38"/>
+      <c r="AK63" s="38"/>
     </row>
-    <row r="64" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -12300,10 +12065,9 @@
       <c r="AH64" s="36"/>
       <c r="AI64" s="36"/>
       <c r="AJ64" s="36"/>
-      <c r="AK64" s="36"/>
-      <c r="AL64" s="38"/>
+      <c r="AK64" s="38"/>
     </row>
-    <row r="65" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
@@ -12332,10 +12096,9 @@
       <c r="AH65" s="36"/>
       <c r="AI65" s="36"/>
       <c r="AJ65" s="36"/>
-      <c r="AK65" s="36"/>
-      <c r="AL65" s="38"/>
+      <c r="AK65" s="38"/>
     </row>
-    <row r="66" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
@@ -12364,10 +12127,9 @@
       <c r="AH66" s="36"/>
       <c r="AI66" s="36"/>
       <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="38"/>
+      <c r="AK66" s="38"/>
     </row>
-    <row r="67" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
@@ -12396,10 +12158,9 @@
       <c r="AH67" s="36"/>
       <c r="AI67" s="36"/>
       <c r="AJ67" s="36"/>
-      <c r="AK67" s="36"/>
-      <c r="AL67" s="38"/>
+      <c r="AK67" s="38"/>
     </row>
-    <row r="68" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
@@ -12428,10 +12189,9 @@
       <c r="AH68" s="36"/>
       <c r="AI68" s="36"/>
       <c r="AJ68" s="36"/>
-      <c r="AK68" s="36"/>
-      <c r="AL68" s="38"/>
+      <c r="AK68" s="38"/>
     </row>
-    <row r="69" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
@@ -12460,10 +12220,9 @@
       <c r="AH69" s="36"/>
       <c r="AI69" s="36"/>
       <c r="AJ69" s="36"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="38"/>
+      <c r="AK69" s="38"/>
     </row>
-    <row r="70" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -12492,10 +12251,9 @@
       <c r="AH70" s="36"/>
       <c r="AI70" s="36"/>
       <c r="AJ70" s="36"/>
-      <c r="AK70" s="36"/>
-      <c r="AL70" s="38"/>
+      <c r="AK70" s="38"/>
     </row>
-    <row r="71" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -12524,10 +12282,9 @@
       <c r="AH71" s="36"/>
       <c r="AI71" s="36"/>
       <c r="AJ71" s="36"/>
-      <c r="AK71" s="36"/>
-      <c r="AL71" s="38"/>
+      <c r="AK71" s="38"/>
     </row>
-    <row r="72" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -12556,10 +12313,9 @@
       <c r="AH72" s="36"/>
       <c r="AI72" s="36"/>
       <c r="AJ72" s="36"/>
-      <c r="AK72" s="36"/>
-      <c r="AL72" s="38"/>
+      <c r="AK72" s="38"/>
     </row>
-    <row r="73" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -12588,10 +12344,9 @@
       <c r="AH73" s="36"/>
       <c r="AI73" s="36"/>
       <c r="AJ73" s="36"/>
-      <c r="AK73" s="36"/>
-      <c r="AL73" s="38"/>
+      <c r="AK73" s="38"/>
     </row>
-    <row r="74" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -12620,10 +12375,9 @@
       <c r="AH74" s="36"/>
       <c r="AI74" s="36"/>
       <c r="AJ74" s="36"/>
-      <c r="AK74" s="36"/>
-      <c r="AL74" s="38"/>
+      <c r="AK74" s="38"/>
     </row>
-    <row r="75" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -12652,10 +12406,9 @@
       <c r="AH75" s="36"/>
       <c r="AI75" s="36"/>
       <c r="AJ75" s="36"/>
-      <c r="AK75" s="36"/>
-      <c r="AL75" s="38"/>
+      <c r="AK75" s="38"/>
     </row>
-    <row r="76" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -12684,10 +12437,9 @@
       <c r="AH76" s="36"/>
       <c r="AI76" s="36"/>
       <c r="AJ76" s="36"/>
-      <c r="AK76" s="36"/>
-      <c r="AL76" s="38"/>
+      <c r="AK76" s="38"/>
     </row>
-    <row r="77" spans="1:40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -12724,17 +12476,16 @@
       <c r="AH77" s="41"/>
       <c r="AI77" s="41"/>
       <c r="AJ77" s="41"/>
-      <c r="AK77" s="41"/>
-      <c r="AL77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="41"/>
       <c r="AM77" s="41"/>
-      <c r="AN77" s="41"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L50">
     <sortCondition ref="A50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:AL24 J25:S25 U25:AL25 J26:AL29">
+  <conditionalFormatting sqref="J25:S25 J2:AK24 U25:AK25 J26:AK29">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12742,7 +12493,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AL51">
+  <conditionalFormatting sqref="J2:AK51">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
